--- a/炒股记录分析.xlsx
+++ b/炒股记录分析.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17030" windowHeight="10250"/>
+    <workbookView windowWidth="17030" windowHeight="10850"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="主力资金流入和股价" sheetId="1" r:id="rId1"/>
+    <sheet name="股价走势图" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>日期</t>
   </si>
@@ -102,12 +102,6 @@
     <t>2023.03.03</t>
   </si>
   <si>
-    <t>2023.03.04</t>
-  </si>
-  <si>
-    <t>2023.03.05</t>
-  </si>
-  <si>
     <t>2023.03.06</t>
   </si>
   <si>
@@ -115,6 +109,42 @@
   </si>
   <si>
     <t>2023.03.08</t>
+  </si>
+  <si>
+    <t>2023.03.09</t>
+  </si>
+  <si>
+    <t>2023.03.10</t>
+  </si>
+  <si>
+    <t>2023.03.11</t>
+  </si>
+  <si>
+    <t>2023.03.12</t>
+  </si>
+  <si>
+    <t>2023.03.13</t>
+  </si>
+  <si>
+    <t>2023.03.14</t>
+  </si>
+  <si>
+    <t>2023.03.15</t>
+  </si>
+  <si>
+    <t>2023.03.16</t>
+  </si>
+  <si>
+    <t>2023.03.17</t>
+  </si>
+  <si>
+    <t>2023.03.18</t>
+  </si>
+  <si>
+    <t>2023.03.19</t>
+  </si>
+  <si>
+    <t>2023.03.20</t>
   </si>
   <si>
     <t>汇总</t>
@@ -861,9 +891,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$18</c:f>
+              <c:f>主力资金流入和股价!$A$5:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2023.02.21</c:v>
                 </c:pt>
@@ -892,18 +922,12 @@
                   <c:v>2023.03.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2023.03.04</c:v>
+                  <c:v>2023.03.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2023.03.05</c:v>
+                  <c:v>2023.03.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2023.03.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2023.03.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>2023.03.08</c:v>
                 </c:pt>
               </c:strCache>
@@ -911,10 +935,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$18</c:f>
+              <c:f>主力资金流入和股价!$C$5:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>5.43</c:v>
                 </c:pt>
@@ -941,6 +965,9 @@
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00_ ">
                   <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,9 +1175,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$18</c:f>
+              <c:f>主力资金流入和股价!$A$5:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2023.02.21</c:v>
                 </c:pt>
@@ -1179,18 +1206,12 @@
                   <c:v>2023.03.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2023.03.04</c:v>
+                  <c:v>2023.03.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2023.03.05</c:v>
+                  <c:v>2023.03.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2023.03.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2023.03.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>2023.03.08</c:v>
                 </c:pt>
               </c:strCache>
@@ -1198,10 +1219,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$18</c:f>
+              <c:f>主力资金流入和股价!$E$5:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>5.89</c:v>
                 </c:pt>
@@ -1228,6 +1249,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,7 +1433,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0679176201372998"/>
+          <c:y val="0.0794223826714801"/>
+          <c:w val="0.908054919908467"/>
+          <c:h val="0.549963898916968"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1433,9 +1467,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$18</c:f>
+              <c:f>主力资金流入和股价!$A$5:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2023.02.21</c:v>
                 </c:pt>
@@ -1464,18 +1498,12 @@
                   <c:v>2023.03.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2023.03.04</c:v>
+                  <c:v>2023.03.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2023.03.05</c:v>
+                  <c:v>2023.03.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2023.03.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2023.03.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>2023.03.08</c:v>
                 </c:pt>
               </c:strCache>
@@ -1483,10 +1511,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$18</c:f>
+              <c:f>主力资金流入和股价!$G$5:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>17.49</c:v>
                 </c:pt>
@@ -1513,6 +1541,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>16.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1718,9 +1749,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$18</c:f>
+              <c:f>主力资金流入和股价!$A$5:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2023.02.21</c:v>
                 </c:pt>
@@ -1749,18 +1780,12 @@
                   <c:v>2023.03.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2023.03.04</c:v>
+                  <c:v>2023.03.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2023.03.05</c:v>
+                  <c:v>2023.03.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2023.03.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2023.03.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>2023.03.08</c:v>
                 </c:pt>
               </c:strCache>
@@ -1768,10 +1793,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$5:$I$18</c:f>
+              <c:f>主力资金流入和股价!$I$5:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="3">
                   <c:v>22.49</c:v>
                 </c:pt>
@@ -1789,6 +1814,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>23.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4561,16 +4589,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.8181818181818" customWidth="1"/>
     <col min="2" max="5" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10.5454545454545"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4891,9 +4920,33 @@
         <v>23.46</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-422.3</v>
+      </c>
+      <c r="C14">
+        <v>5.31</v>
+      </c>
+      <c r="D14">
+        <v>-49271</v>
+      </c>
+      <c r="E14">
+        <v>5.22</v>
+      </c>
+      <c r="F14">
+        <v>-447.91</v>
+      </c>
+      <c r="G14">
+        <v>16.81</v>
+      </c>
+      <c r="H14">
+        <v>-14129</v>
+      </c>
+      <c r="I14">
+        <v>23.26</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -4916,25 +4969,75 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <f>SUM(B4:B20)</f>
-        <v>-47514.33</v>
-      </c>
-      <c r="D21">
-        <f>SUM(D4:D20)</f>
-        <v>-95901.16</v>
-      </c>
-      <c r="F21">
-        <f>SUM(F4:F20)</f>
-        <v>1831.65</v>
-      </c>
-      <c r="H21">
-        <f>SUM(H4:H20)</f>
-        <v>-40153.61</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B4:B18)</f>
+        <v>-47936.63</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D4:D18)</f>
+        <v>-145172.16</v>
+      </c>
+      <c r="F29">
+        <f>SUM(F4:F18)</f>
+        <v>1383.74</v>
+      </c>
+      <c r="H29">
+        <f>SUM(H4:H18)</f>
+        <v>-54282.61</v>
       </c>
     </row>
   </sheetData>
@@ -4950,45 +5053,45 @@
   <dimension ref="B1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="str">
-        <f>Sheet1!B1</f>
+        <f>主力资金流入和股价!B1</f>
         <v>晶科科技</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="str">
-        <f>Sheet1!D1</f>
+        <f>主力资金流入和股价!D1</f>
         <v>中公教育</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="str">
-        <f>Sheet1!F1</f>
+        <f>主力资金流入和股价!F1</f>
         <v>宏柏新材</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="str">
-        <f>Sheet1!H1</f>
+        <f>主力资金流入和股价!H1</f>
         <v>中兵红箭</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/炒股记录分析.xlsx
+++ b/炒股记录分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17030" windowHeight="10850"/>
+    <workbookView windowWidth="20930" windowHeight="10250"/>
   </bookViews>
   <sheets>
     <sheet name="主力资金流入和股价" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
   <authors>
     <author xml:space="preserve">1月10日非公开发行17%的股票，限售期6个月。
 </author>
+    <author>giw1314</author>
   </authors>
   <commentList>
     <comment ref="B3" authorId="0">
@@ -35,12 +36,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="K7" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>giw1314:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+前20天累计</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>日期</t>
   </si>
@@ -58,6 +81,9 @@
   </si>
   <si>
     <t>当天主力资金净流入（万）</t>
+  </si>
+  <si>
+    <t>本周主力资金净值</t>
   </si>
   <si>
     <t>股价</t>
@@ -164,7 +190,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -323,6 +349,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -777,9 +814,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -935,7 +975,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>主力资金流入和股价!$C$5:$C$16</c:f>
+              <c:f>主力资金流入和股价!$D$5:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -968,6 +1008,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,7 +1262,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>主力资金流入和股价!$E$5:$E$16</c:f>
+              <c:f>主力资金流入和股价!$G$5:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1252,6 +1295,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="0.00_ ">
+                  <c:v>5.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1511,7 +1557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>主力资金流入和股价!$G$5:$G$16</c:f>
+              <c:f>主力资金流入和股价!$J$5:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1544,6 +1590,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>16.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1793,7 +1842,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>主力资金流入和股价!$I$5:$I$16</c:f>
+              <c:f>主力资金流入和股价!$M$5:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1817,6 +1866,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>23.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4589,455 +4641,572 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.8181818181818" customWidth="1"/>
-    <col min="2" max="5" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.5454545454545"/>
+    <col min="2" max="7" width="10" customWidth="1"/>
+    <col min="11" max="12" width="10.5454545454545"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" ht="42" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>-32900</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-81800</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>5584.93</v>
       </c>
-      <c r="J4" t="s">
-        <v>10</v>
+      <c r="N4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>-1123.87</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5.43</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>597.54</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>5.89</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>34.98</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>17.49</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>-3949.81</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5.38</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-4712.58</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>5.79</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>-252.02</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>17.28</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>-3089.6</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5.34</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6346.71</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>5.82</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>-1149.65</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>17.11</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>-50947</v>
       </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>-1974.26</v>
       </c>
       <c r="C8">
+        <f>SUM(B4:B8)</f>
+        <v>-43037.54</v>
+      </c>
+      <c r="D8">
         <v>5.29</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-8219.52</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8">
+        <f>SUM(E4:E8)</f>
+        <v>-87787.85</v>
+      </c>
+      <c r="G8" s="3">
         <v>5.7</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>106.83</v>
       </c>
-      <c r="G8">
+      <c r="I8">
+        <f>SUM(H4:H8)</f>
+        <v>4325.07</v>
+      </c>
+      <c r="J8">
         <v>17.22</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>7953.14</v>
       </c>
-      <c r="I8">
+      <c r="L8">
+        <f>SUM(K4:K8)</f>
+        <v>-42993.86</v>
+      </c>
+      <c r="M8">
         <v>22.49</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>-2250</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>5.34</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-6038.52</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>5.58</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>-269.84</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>17.18</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>-2532.32</v>
       </c>
-      <c r="I9">
+      <c r="M9">
         <v>22.7</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>-532.89</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>5.41</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1543.58</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>5.71</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>38.19</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>17.17</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>-2703.37</v>
       </c>
-      <c r="I10">
+      <c r="M10">
         <v>22.68</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>174.13</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>5.37</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1398.49</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>5.73</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>-647.88</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>17.12</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>-4426.06</v>
       </c>
-      <c r="I11">
+      <c r="M11">
         <v>22.61</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>-2022.05</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>5.27</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-3182.03</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="4">
         <v>5.7</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>-1363.84</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>16.64</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>-14329</v>
       </c>
-      <c r="I12">
+      <c r="M12">
         <v>22.27</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>154.02</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
+        <f>SUM(B9:B13)</f>
+        <v>-4476.79</v>
+      </c>
+      <c r="D13" s="4">
         <v>5.3</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-1834.83</v>
       </c>
-      <c r="E13">
+      <c r="F13">
+        <f>SUM(E9:E13)</f>
+        <v>-8113.31</v>
+      </c>
+      <c r="G13">
         <v>5.79</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>-250.05</v>
       </c>
-      <c r="G13">
+      <c r="I13">
+        <f>SUM(H9:H13)</f>
+        <v>-2493.42</v>
+      </c>
+      <c r="J13">
         <v>16.59</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>26831</v>
       </c>
-      <c r="I13">
+      <c r="L13">
+        <f>SUM(K9:K13)</f>
+        <v>2840.25</v>
+      </c>
+      <c r="M13">
         <v>23.46</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4">
         <v>-422.3</v>
       </c>
-      <c r="C14">
+      <c r="C14"/>
+      <c r="D14">
         <v>5.31</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-49271</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>5.22</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>-447.91</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>16.81</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>-14129</v>
       </c>
-      <c r="I14">
+      <c r="M14">
         <v>23.26</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>-2173.28</v>
+      </c>
+      <c r="D15">
+        <v>5.19</v>
+      </c>
+      <c r="E15">
+        <v>-4258.29</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5.1</v>
+      </c>
+      <c r="H15">
+        <v>-304.77</v>
+      </c>
+      <c r="J15">
+        <v>16.65</v>
+      </c>
+      <c r="K15">
+        <v>-6275.68</v>
+      </c>
+      <c r="M15">
+        <v>23.76</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <f>SUM(B14:B18)</f>
+        <v>-2595.58</v>
+      </c>
+      <c r="F18">
+        <f>SUM(E14:E18)</f>
+        <v>-53529.29</v>
+      </c>
+      <c r="I18">
+        <f>SUM(H14:H18)</f>
+        <v>-752.68</v>
+      </c>
+      <c r="L18">
+        <f>SUM(K14:K18)</f>
+        <v>-20404.68</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <f>SUM(B19:B23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>SUM(E19:E23)</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>SUM(H19:H23)</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f>SUM(K19:K23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <f>SUM(B24:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>SUM(E24:E28)</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>SUM(H24:H28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>SUM(K24:K28)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <f>SUM(B4:B18)</f>
-        <v>-47936.63</v>
-      </c>
-      <c r="D29">
-        <f>SUM(D4:D18)</f>
-        <v>-145172.16</v>
-      </c>
-      <c r="F29">
-        <f>SUM(F4:F18)</f>
-        <v>1383.74</v>
+        <v>-50109.91</v>
+      </c>
+      <c r="E29">
+        <f>SUM(E4:E18)</f>
+        <v>-149430.45</v>
       </c>
       <c r="H29">
         <f>SUM(H4:H18)</f>
-        <v>-54282.61</v>
+        <v>1078.97</v>
+      </c>
+      <c r="K29">
+        <f>SUM(K4:K18)</f>
+        <v>-60558.29</v>
       </c>
     </row>
   </sheetData>
@@ -5052,7 +5221,7 @@
   <sheetPr/>
   <dimension ref="B1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -5064,34 +5233,34 @@
         <v>晶科科技</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="str">
-        <f>主力资金流入和股价!D1</f>
+        <f>主力资金流入和股价!E1</f>
         <v>中公教育</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="str">
-        <f>主力资金流入和股价!F1</f>
+        <f>主力资金流入和股价!H1</f>
         <v>宏柏新材</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="str">
-        <f>主力资金流入和股价!H1</f>
+        <f>主力资金流入和股价!K1</f>
         <v>中兵红箭</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/炒股记录分析.xlsx
+++ b/炒股记录分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10250"/>
+    <workbookView windowWidth="20930" windowHeight="10850"/>
   </bookViews>
   <sheets>
     <sheet name="主力资金流入和股价" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,73 @@
         </r>
       </text>
     </comment>
+    <comment ref="B4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>giw1314:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+前20天累计
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>giw1314:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+前20天累计</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>giw1314:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+前20天累计</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K7" authorId="1">
       <text>
         <r>
@@ -58,12 +125,56 @@
         </r>
       </text>
     </comment>
+    <comment ref="E14" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>giw1314:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+今日跌停</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>giw1314:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+从2022年8月18日至今，原定六个月减持计划周期中原本可减持2%的股份，但是只减持了0.6%，代表原始股东看好经营形势</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>日期</t>
   </si>
@@ -89,16 +200,10 @@
     <t>股价</t>
   </si>
   <si>
-    <t>主力资金（万）</t>
-  </si>
-  <si>
     <t>2023.02.01</t>
   </si>
   <si>
     <t>2023.02.20</t>
-  </si>
-  <si>
-    <t>前20天累计</t>
   </si>
   <si>
     <t>2023.02.21</t>
@@ -173,6 +278,42 @@
     <t>2023.03.20</t>
   </si>
   <si>
+    <t>2023.03.21</t>
+  </si>
+  <si>
+    <t>2023.03.22</t>
+  </si>
+  <si>
+    <t>2023.03.23</t>
+  </si>
+  <si>
+    <t>2023.03.24</t>
+  </si>
+  <si>
+    <t>2023.03.25</t>
+  </si>
+  <si>
+    <t>2023.03.26</t>
+  </si>
+  <si>
+    <t>2023.03.27</t>
+  </si>
+  <si>
+    <t>2023.03.28</t>
+  </si>
+  <si>
+    <t>2023.03.29</t>
+  </si>
+  <si>
+    <t>2023.03.30</t>
+  </si>
+  <si>
+    <t>2023.03.31</t>
+  </si>
+  <si>
+    <t>2023.04.01</t>
+  </si>
+  <si>
     <t>汇总</t>
   </si>
   <si>
@@ -190,10 +331,21 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -669,52 +821,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,112 +869,121 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -882,6 +1037,18 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -977,7 +1144,7 @@
             <c:numRef>
               <c:f>主力资金流入和股价!$D$5:$D$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>5.43</c:v>
@@ -1003,7 +1170,7 @@
                 <c:pt idx="7">
                   <c:v>5.27</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="0.00_ ">
+                <c:pt idx="8">
                   <c:v>5.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -1011,6 +1178,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,7 +1270,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1264,7 +1434,7 @@
             <c:numRef>
               <c:f>主力资金流入和股价!$G$5:$G$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>5.89</c:v>
@@ -1275,7 +1445,7 @@
                 <c:pt idx="2">
                   <c:v>5.82</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="0.00">
+                <c:pt idx="3">
                   <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
@@ -1287,7 +1457,7 @@
                 <c:pt idx="6">
                   <c:v>5.73</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="0.00_ ">
+                <c:pt idx="7">
                   <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
@@ -1296,8 +1466,11 @@
                 <c:pt idx="9">
                   <c:v>5.22</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00_ ">
+                <c:pt idx="10">
                   <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1387,7 +1560,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1559,7 +1732,7 @@
             <c:numRef>
               <c:f>主力资金流入和股价!$J$5:$J$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>17.49</c:v>
@@ -1593,6 +1766,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>16.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1682,7 +1858,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1844,7 +2020,7 @@
             <c:numRef>
               <c:f>主力资金流入和股价!$M$5:$M$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="3">
                   <c:v>22.49</c:v>
@@ -1869,6 +2045,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>23.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1958,7 +2137,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4641,575 +4820,1065 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.8181818181818" customWidth="1"/>
-    <col min="2" max="7" width="10" customWidth="1"/>
-    <col min="11" max="12" width="10.5454545454545"/>
+    <col min="1" max="1" width="11.4636363636364" customWidth="1"/>
+    <col min="2" max="2" width="14.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.0090909090909" customWidth="1"/>
+    <col min="4" max="4" width="6.19090909090909" customWidth="1"/>
+    <col min="5" max="5" width="16.0090909090909" customWidth="1"/>
+    <col min="6" max="6" width="18.0090909090909" customWidth="1"/>
+    <col min="7" max="7" width="6.19090909090909" customWidth="1"/>
+    <col min="8" max="8" width="16.0090909090909" customWidth="1"/>
+    <col min="9" max="9" width="18.0090909090909" customWidth="1"/>
+    <col min="10" max="10" width="7.28181818181818" customWidth="1"/>
+    <col min="11" max="11" width="16.0090909090909" customWidth="1"/>
+    <col min="12" max="12" width="18.0090909090909" customWidth="1"/>
+    <col min="13" max="13" width="7.28181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
-    <row r="2" ht="42" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" ht="33.4" customHeight="1" spans="1:13">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="4" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B4" s="5">
+        <v>-32900</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <v>-81800</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5">
+        <v>5584.93</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
+    <row r="5" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>-32900</v>
-      </c>
-      <c r="E4">
-        <v>-81800</v>
-      </c>
-      <c r="H4">
-        <v>5584.93</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="B5" s="5">
+        <v>-1123.87</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>5.43</v>
+      </c>
+      <c r="E5" s="5">
+        <v>597.54</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
+        <v>5.89</v>
+      </c>
+      <c r="H5" s="5">
+        <v>34.98</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5">
+        <v>17.49</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B6" s="5">
+        <v>-3949.81</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>5.38</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-4712.58</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>5.79</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-252.02</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
+        <v>17.28</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+    <row r="7" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>-1123.87</v>
-      </c>
-      <c r="D5">
-        <v>5.43</v>
-      </c>
-      <c r="E5">
-        <v>597.54</v>
-      </c>
-      <c r="G5">
-        <v>5.89</v>
-      </c>
-      <c r="H5">
-        <v>34.98</v>
-      </c>
-      <c r="J5">
-        <v>17.49</v>
-      </c>
+      <c r="B7" s="5">
+        <v>-3089.6</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>5.34</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6346.71</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>5.82</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-1149.65</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5">
+        <v>17.11</v>
+      </c>
+      <c r="K7" s="5">
+        <v>-50947</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+    <row r="8" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>-3949.81</v>
-      </c>
-      <c r="D6">
-        <v>5.38</v>
-      </c>
-      <c r="E6">
-        <v>-4712.58</v>
-      </c>
-      <c r="G6">
-        <v>5.79</v>
-      </c>
-      <c r="H6">
-        <v>-252.02</v>
-      </c>
-      <c r="J6">
-        <v>17.28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>-3089.6</v>
-      </c>
-      <c r="D7">
-        <v>5.34</v>
-      </c>
-      <c r="E7">
-        <v>6346.71</v>
-      </c>
-      <c r="G7">
-        <v>5.82</v>
-      </c>
-      <c r="H7">
-        <v>-1149.65</v>
-      </c>
-      <c r="J7">
-        <v>17.11</v>
-      </c>
-      <c r="K7">
-        <v>-50947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>-1974.26</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <f>SUM(B4:B8)</f>
         <v>-43037.54</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>5.29</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>-8219.52</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <f>SUM(E4:E8)</f>
         <v>-87787.85</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>5.7</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>106.83</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <f>SUM(H4:H8)</f>
         <v>4325.07</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <v>17.22</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <v>7953.14</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <f>SUM(K4:K8)</f>
         <v>-42993.86</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>22.49</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+    <row r="9" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-2250</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>5.34</v>
+      </c>
+      <c r="E9" s="5">
+        <v>-6038.52</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>5.58</v>
+      </c>
+      <c r="H9" s="5">
+        <v>-269.84</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
+        <v>17.18</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-2532.32</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="10" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-532.89</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <v>5.41</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1543.58</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>5.71</v>
+      </c>
+      <c r="H10" s="5">
+        <v>38.19</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
+        <v>17.17</v>
+      </c>
+      <c r="K10" s="5">
+        <v>-2703.37</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5">
+        <v>22.68</v>
+      </c>
+    </row>
+    <row r="11" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
-        <v>-2250</v>
-      </c>
-      <c r="D9">
-        <v>5.34</v>
-      </c>
-      <c r="E9">
-        <v>-6038.52</v>
-      </c>
-      <c r="G9">
-        <v>5.58</v>
-      </c>
-      <c r="H9">
-        <v>-269.84</v>
-      </c>
-      <c r="J9">
-        <v>17.18</v>
-      </c>
-      <c r="K9">
-        <v>-2532.32</v>
-      </c>
-      <c r="M9">
-        <v>22.7</v>
+      <c r="B11" s="5">
+        <v>174.13</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>5.37</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1398.49</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <v>5.73</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-647.88</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
+        <v>17.12</v>
+      </c>
+      <c r="K11" s="5">
+        <v>-4426.06</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5">
+        <v>22.61</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
+    <row r="12" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
-        <v>-532.89</v>
-      </c>
-      <c r="D10">
-        <v>5.41</v>
-      </c>
-      <c r="E10">
-        <v>1543.58</v>
-      </c>
-      <c r="G10">
-        <v>5.71</v>
-      </c>
-      <c r="H10">
-        <v>38.19</v>
-      </c>
-      <c r="J10">
-        <v>17.17</v>
-      </c>
-      <c r="K10">
-        <v>-2703.37</v>
-      </c>
-      <c r="M10">
-        <v>22.68</v>
+      <c r="B12" s="5">
+        <v>-2022.05</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
+        <v>5.27</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-3182.03</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="H12" s="5">
+        <v>-1363.84</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5">
+        <v>16.64</v>
+      </c>
+      <c r="K12" s="5">
+        <v>-14329</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5">
+        <v>22.27</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+    <row r="13" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
-        <v>174.13</v>
-      </c>
-      <c r="D11">
-        <v>5.37</v>
-      </c>
-      <c r="E11">
-        <v>1398.49</v>
-      </c>
-      <c r="G11">
-        <v>5.73</v>
-      </c>
-      <c r="H11">
-        <v>-647.88</v>
-      </c>
-      <c r="J11">
-        <v>17.12</v>
-      </c>
-      <c r="K11">
-        <v>-4426.06</v>
-      </c>
-      <c r="M11">
-        <v>22.61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>-2022.05</v>
-      </c>
-      <c r="D12">
-        <v>5.27</v>
-      </c>
-      <c r="E12">
-        <v>-3182.03</v>
-      </c>
-      <c r="G12" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="H12">
-        <v>-1363.84</v>
-      </c>
-      <c r="J12">
-        <v>16.64</v>
-      </c>
-      <c r="K12">
-        <v>-14329</v>
-      </c>
-      <c r="M12">
-        <v>22.27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>154.02</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <f>SUM(B9:B13)</f>
         <v>-4476.79</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>5.3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>-1834.83</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <f>SUM(E9:E13)</f>
         <v>-8113.31</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>5.79</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>-250.05</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <f>SUM(H9:H13)</f>
         <v>-2493.42</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
         <v>16.59</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <v>26831</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5">
         <f>SUM(K9:K13)</f>
         <v>2840.25</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="5">
         <v>23.46</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+    <row r="14" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-422.3</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
+        <v>5.31</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-49271</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
+        <v>5.22</v>
+      </c>
+      <c r="H14" s="5">
+        <v>-447.91</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
+        <v>16.81</v>
+      </c>
+      <c r="K14" s="5">
+        <v>-14129</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5">
+        <v>23.26</v>
+      </c>
+    </row>
+    <row r="15" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5">
+        <v>-2173.28</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <v>5.19</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-4258.29</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <v>5.1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>-304.77</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
+        <v>16.65</v>
+      </c>
+      <c r="K15" s="5">
+        <v>-6275.68</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5">
+        <v>23.76</v>
+      </c>
+    </row>
+    <row r="16" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4">
-        <v>-422.3</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14">
-        <v>5.31</v>
-      </c>
-      <c r="E14">
-        <v>-49271</v>
-      </c>
-      <c r="G14">
-        <v>5.22</v>
-      </c>
-      <c r="H14">
-        <v>-447.91</v>
-      </c>
-      <c r="J14">
-        <v>16.81</v>
-      </c>
-      <c r="K14">
-        <v>-14129</v>
-      </c>
-      <c r="M14">
-        <v>23.26</v>
+      <c r="B16" s="5">
+        <v>-356.32</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>-1295.51</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <v>5.14</v>
+      </c>
+      <c r="H16" s="5">
+        <v>-178.56</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5">
+        <v>16.54</v>
+      </c>
+      <c r="K16" s="5">
+        <v>27301</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5">
+        <v>25.6</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+    <row r="17" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
-        <v>-2173.28</v>
-      </c>
-      <c r="D15">
-        <v>5.19</v>
-      </c>
-      <c r="E15">
-        <v>-4258.29</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5.1</v>
-      </c>
-      <c r="H15">
-        <v>-304.77</v>
-      </c>
-      <c r="J15">
-        <v>16.65</v>
-      </c>
-      <c r="K15">
-        <v>-6275.68</v>
-      </c>
-      <c r="M15">
-        <v>23.76</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="18" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
+        <f>SUM(B14:B18)</f>
+        <v>-2951.9</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <f>SUM(E14:E18)</f>
+        <v>-54824.8</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5">
+        <f>SUM(H14:H18)</f>
+        <v>-931.24</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
+        <f>SUM(K14:K18)</f>
+        <v>6896.32</v>
+      </c>
+      <c r="M18" s="5"/>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="19" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
+    <row r="20" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18">
-        <f>SUM(B14:B18)</f>
-        <v>-2595.58</v>
-      </c>
-      <c r="F18">
-        <f>SUM(E14:E18)</f>
-        <v>-53529.29</v>
-      </c>
-      <c r="I18">
-        <f>SUM(H14:H18)</f>
-        <v>-752.68</v>
-      </c>
-      <c r="L18">
-        <f>SUM(K14:K18)</f>
-        <v>-20404.68</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="21" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="22" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="23" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5">
         <f>SUM(B19:B23)</f>
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
         <f>SUM(E19:E23)</f>
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5">
         <f>SUM(H19:H23)</f>
         <v>0</v>
       </c>
-      <c r="L23">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5">
         <f>SUM(K19:K23)</f>
         <v>0</v>
       </c>
+      <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="27" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="28" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5">
         <f>SUM(B24:B28)</f>
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
         <f>SUM(E24:E28)</f>
         <v>0</v>
       </c>
-      <c r="I28">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5">
         <f>SUM(H24:H28)</f>
         <v>0</v>
       </c>
-      <c r="L28">
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5">
         <f>SUM(K24:K28)</f>
         <v>0</v>
       </c>
+      <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+    <row r="29" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B29">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5">
+        <f>SUM(B29:B33)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
+        <f>SUM(E29:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5">
+        <f>SUM(H29:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5">
+        <f>SUM(K29:K33)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5">
+        <f>SUM(B34:B38)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
+        <f>SUM(E34:E38)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5">
+        <f>SUM(H34:H38)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5">
+        <f>SUM(K34:K38)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="5">
         <f>SUM(B4:B18)</f>
-        <v>-50109.91</v>
-      </c>
-      <c r="E29">
+        <v>-50466.23</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5">
         <f>SUM(E4:E18)</f>
-        <v>-149430.45</v>
-      </c>
-      <c r="H29">
+        <v>-150725.96</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5">
         <f>SUM(H4:H18)</f>
-        <v>1078.97</v>
-      </c>
-      <c r="K29">
+        <v>900.41</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5">
         <f>SUM(K4:K18)</f>
-        <v>-60558.29</v>
-      </c>
+        <v>-33257.29</v>
+      </c>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1 C3:C1048576">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1 F3:F1048576">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1 I3:I1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1 L3:L1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
@@ -5221,8 +5890,8 @@
   <sheetPr/>
   <dimension ref="B1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -5233,7 +5902,7 @@
         <v>晶科科技</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -5242,7 +5911,7 @@
         <v>中公教育</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -5251,7 +5920,7 @@
         <v>宏柏新材</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -5260,7 +5929,7 @@
         <v>中兵红箭</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5276,7 +5945,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>

--- a/炒股记录分析.xlsx
+++ b/炒股记录分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10850"/>
+    <workbookView windowWidth="20930" windowHeight="10250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="主力资金流入和股价" sheetId="1" r:id="rId1"/>
@@ -4822,10 +4822,10 @@
   <sheetPr/>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
@@ -5365,18 +5365,34 @@
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5">
+        <v>-2156.71</v>
+      </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="5">
+        <v>5.14</v>
+      </c>
+      <c r="E17" s="5">
+        <v>-6103.39</v>
+      </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="5">
+        <v>5.05</v>
+      </c>
+      <c r="H17" s="5">
+        <v>-36.85</v>
+      </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="J17" s="5">
+        <v>16.73</v>
+      </c>
+      <c r="K17" s="5">
+        <v>-16110</v>
+      </c>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="5">
+        <v>25.43</v>
+      </c>
     </row>
     <row r="18" ht="16.7" customHeight="1" spans="1:13">
       <c r="A18" s="4" t="s">
@@ -5385,25 +5401,25 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5">
         <f>SUM(B14:B18)</f>
-        <v>-2951.9</v>
+        <v>-5108.61</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
         <f>SUM(E14:E18)</f>
-        <v>-54824.8</v>
+        <v>-60928.19</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5">
         <f>SUM(H14:H18)</f>
-        <v>-931.24</v>
+        <v>-968.09</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5">
         <f>SUM(K14:K18)</f>
-        <v>6896.32</v>
+        <v>-9213.68</v>
       </c>
       <c r="M18" s="5"/>
     </row>
@@ -5835,25 +5851,25 @@
       </c>
       <c r="B41" s="5">
         <f>SUM(B4:B18)</f>
-        <v>-50466.23</v>
+        <v>-52622.94</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5">
         <f>SUM(E4:E18)</f>
-        <v>-150725.96</v>
+        <v>-156829.35</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5">
         <f>SUM(H4:H18)</f>
-        <v>900.41</v>
+        <v>863.56</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5">
         <f>SUM(K4:K18)</f>
-        <v>-33257.29</v>
+        <v>-49367.29</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -5890,8 +5906,8 @@
   <sheetPr/>
   <dimension ref="B1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" outlineLevelCol="2"/>

--- a/炒股记录分析.xlsx
+++ b/炒股记录分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10250" activeTab="1"/>
+    <workbookView windowWidth="20930" windowHeight="10850"/>
   </bookViews>
   <sheets>
     <sheet name="主力资金流入和股价" sheetId="1" r:id="rId1"/>
@@ -169,12 +169,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="A21" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>giw1314:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在这行上方插入新行</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>日期</t>
   </si>
@@ -257,63 +279,6 @@
     <t>2023.03.13</t>
   </si>
   <si>
-    <t>2023.03.14</t>
-  </si>
-  <si>
-    <t>2023.03.15</t>
-  </si>
-  <si>
-    <t>2023.03.16</t>
-  </si>
-  <si>
-    <t>2023.03.17</t>
-  </si>
-  <si>
-    <t>2023.03.18</t>
-  </si>
-  <si>
-    <t>2023.03.19</t>
-  </si>
-  <si>
-    <t>2023.03.20</t>
-  </si>
-  <si>
-    <t>2023.03.21</t>
-  </si>
-  <si>
-    <t>2023.03.22</t>
-  </si>
-  <si>
-    <t>2023.03.23</t>
-  </si>
-  <si>
-    <t>2023.03.24</t>
-  </si>
-  <si>
-    <t>2023.03.25</t>
-  </si>
-  <si>
-    <t>2023.03.26</t>
-  </si>
-  <si>
-    <t>2023.03.27</t>
-  </si>
-  <si>
-    <t>2023.03.28</t>
-  </si>
-  <si>
-    <t>2023.03.29</t>
-  </si>
-  <si>
-    <t>2023.03.30</t>
-  </si>
-  <si>
-    <t>2023.03.31</t>
-  </si>
-  <si>
-    <t>2023.04.01</t>
-  </si>
-  <si>
     <t>汇总</t>
   </si>
   <si>
@@ -331,7 +296,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -345,6 +310,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -821,49 +791,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,102 +842,102 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -983,6 +950,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1037,7 +1007,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1045,6 +1015,20 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1098,9 +1082,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>主力资金流入和股价!$A$5:$A$16</c:f>
+              <c:f>主力资金流入和股价!$A$5:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2023.02.21</c:v>
                 </c:pt>
@@ -1136,16 +1120,31 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2023.03.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023.03.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023.03.10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023.03.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2023.03.12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023.03.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>主力资金流入和股价!$D$5:$D$16</c:f>
+              <c:f>主力资金流入和股价!$D$5:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>5.43</c:v>
                 </c:pt>
@@ -1181,6 +1180,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,9 +1393,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>主力资金流入和股价!$A$5:$A$16</c:f>
+              <c:f>主力资金流入和股价!$A$5:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2023.02.21</c:v>
                 </c:pt>
@@ -1426,16 +1431,31 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2023.03.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023.03.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023.03.10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023.03.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2023.03.12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023.03.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>主力资金流入和股价!$G$5:$G$16</c:f>
+              <c:f>主力资金流入和股价!$G$5:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>5.89</c:v>
                 </c:pt>
@@ -1471,6 +1491,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1686,9 +1712,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>主力资金流入和股价!$A$5:$A$16</c:f>
+              <c:f>主力资金流入和股价!$A$5:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2023.02.21</c:v>
                 </c:pt>
@@ -1724,16 +1750,31 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2023.03.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023.03.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023.03.10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023.03.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2023.03.12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023.03.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>主力资金流入和股价!$J$5:$J$16</c:f>
+              <c:f>主力资金流入和股价!$J$5:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>17.49</c:v>
                 </c:pt>
@@ -1769,6 +1810,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>16.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,9 +2021,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>主力资金流入和股价!$A$5:$A$16</c:f>
+              <c:f>主力资金流入和股价!$A$5:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2023.02.21</c:v>
                 </c:pt>
@@ -2012,16 +2059,31 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2023.03.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023.03.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023.03.10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023.03.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2023.03.12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023.03.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>主力资金流入和股价!$M$5:$M$16</c:f>
+              <c:f>主力资金流入和股价!$M$5:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="3">
                   <c:v>22.49</c:v>
                 </c:pt>
@@ -2048,6 +2110,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4820,36 +4888,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.4636363636364" customWidth="1"/>
-    <col min="2" max="2" width="14.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="18.0090909090909" customWidth="1"/>
     <col min="4" max="4" width="6.19090909090909" customWidth="1"/>
-    <col min="5" max="5" width="16.0090909090909" customWidth="1"/>
+    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
     <col min="6" max="6" width="18.0090909090909" customWidth="1"/>
     <col min="7" max="7" width="6.19090909090909" customWidth="1"/>
-    <col min="8" max="8" width="16.0090909090909" customWidth="1"/>
+    <col min="8" max="8" width="12.6363636363636" customWidth="1"/>
     <col min="9" max="9" width="18.0090909090909" customWidth="1"/>
     <col min="10" max="10" width="7.28181818181818" customWidth="1"/>
-    <col min="11" max="11" width="16.0090909090909" customWidth="1"/>
+    <col min="11" max="11" width="12.6363636363636" customWidth="1"/>
     <col min="12" max="12" width="18.0090909090909" customWidth="1"/>
     <col min="13" max="13" width="7.28181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
@@ -4870,1028 +4938,738 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" ht="33.4" customHeight="1" spans="1:13">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="45.5" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
-    <row r="4" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>-32900</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>-81800</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
         <v>5584.93</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
-    <row r="5" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>-1123.87</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
         <v>5.43</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>597.54</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
         <v>5.89</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>34.98</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>17.49</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
-    <row r="6" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>-3949.81</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>5.38</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>-4712.58</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <v>5.79</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>-252.02</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
         <v>17.28</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
-    <row r="7" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>-3089.6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
         <v>5.34</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>6346.71</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
         <v>5.82</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>-1149.65</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <v>17.11</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>-50947</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
-    <row r="8" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>-1974.26</v>
       </c>
-      <c r="C8" s="5">
-        <f>SUM(B4:B8)</f>
-        <v>-43037.54</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="4">
+        <v>-11000</v>
+      </c>
+      <c r="D8" s="4">
         <v>5.29</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>-8219.52</v>
       </c>
-      <c r="F8" s="5">
-        <f>SUM(E4:E8)</f>
-        <v>-87787.85</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="4">
+        <v>-7000</v>
+      </c>
+      <c r="G8" s="4">
         <v>5.7</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>106.83</v>
       </c>
-      <c r="I8" s="5">
-        <f>SUM(H4:H8)</f>
-        <v>4325.07</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="I8" s="4">
+        <v>-1259</v>
+      </c>
+      <c r="J8" s="4">
         <v>17.22</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>7953.14</v>
       </c>
-      <c r="L8" s="5">
-        <f>SUM(K4:K8)</f>
-        <v>-42993.86</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="L8" s="4">
+        <v>7953</v>
+      </c>
+      <c r="M8" s="4">
         <v>22.49</v>
       </c>
     </row>
-    <row r="9" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A9" s="4" t="s">
+    <row r="9" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>-2250</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>5.34</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>-6038.52</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
         <v>5.58</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>-269.84</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
         <v>17.18</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>-2532.32</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
         <v>22.7</v>
       </c>
     </row>
-    <row r="10" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A10" s="4" t="s">
+    <row r="10" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>-532.89</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>5.41</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>1543.58</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <v>5.71</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>38.19</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
         <v>17.17</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>-2703.37</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
         <v>22.68</v>
       </c>
     </row>
-    <row r="11" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A11" s="4" t="s">
+    <row r="11" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>174.13</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
         <v>5.37</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>1398.49</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
         <v>5.73</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>-647.88</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
         <v>17.12</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>-4426.06</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
         <v>22.61</v>
       </c>
     </row>
-    <row r="12" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A12" s="4" t="s">
+    <row r="12" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>-2022.05</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>5.27</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>-3182.03</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
         <v>5.7</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>-1363.84</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>16.64</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>-14329</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
         <v>22.27</v>
       </c>
     </row>
-    <row r="13" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A13" s="4" t="s">
+    <row r="13" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>154.02</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f>SUM(B9:B13)</f>
         <v>-4476.79</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>5.3</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>-1834.83</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f>SUM(E9:E13)</f>
         <v>-8113.31</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>5.79</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>-250.05</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f>SUM(H9:H13)</f>
         <v>-2493.42</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>16.59</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>26831</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <f>SUM(K9:K13)</f>
         <v>2840.25</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>23.46</v>
       </c>
     </row>
-    <row r="14" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A14" s="4" t="s">
+    <row r="14" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>-422.3</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
         <v>5.31</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>-49271</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
         <v>5.22</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>-447.91</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
         <v>16.81</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>-14129</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
         <v>23.26</v>
       </c>
     </row>
-    <row r="15" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A15" s="4" t="s">
+    <row r="15" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>-2173.28</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
         <v>5.19</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>-4258.29</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
         <v>5.1</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>-304.77</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
         <v>16.65</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>-6275.68</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
         <v>23.76</v>
       </c>
     </row>
-    <row r="16" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A16" s="4" t="s">
+    <row r="16" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>-356.32</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <v>5.2</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>-1295.51</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
         <v>5.14</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>-178.56</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
         <v>16.54</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>27301</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
         <v>25.6</v>
       </c>
     </row>
-    <row r="17" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A17" s="4" t="s">
+    <row r="17" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>-2156.71</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
         <v>5.14</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>-6103.39</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
         <v>5.05</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>-36.85</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
         <v>16.73</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>-16110</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
         <v>25.43</v>
       </c>
     </row>
-    <row r="18" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A18" s="4" t="s">
+    <row r="18" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5">
+      <c r="B18" s="4">
+        <v>-707.31</v>
+      </c>
+      <c r="C18" s="4">
         <f>SUM(B14:B18)</f>
-        <v>-5108.61</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
+        <v>-5815.92</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5.11</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-1194.41</v>
+      </c>
+      <c r="F18" s="4">
         <f>SUM(E14:E18)</f>
-        <v>-60928.19</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5">
+        <v>-62122.6</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5.04</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-72.29</v>
+      </c>
+      <c r="I18" s="4">
         <f>SUM(H14:H18)</f>
-        <v>-968.09</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
+        <v>-1040.38</v>
+      </c>
+      <c r="J18" s="4">
+        <v>16.45</v>
+      </c>
+      <c r="K18" s="4">
+        <v>-18308</v>
+      </c>
+      <c r="L18" s="4">
         <f>SUM(K14:K18)</f>
-        <v>-9213.68</v>
-      </c>
-      <c r="M18" s="5"/>
+        <v>-27521.68</v>
+      </c>
+      <c r="M18" s="4">
+        <v>24.74</v>
+      </c>
     </row>
-    <row r="19" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A19" s="4" t="s">
+    <row r="19" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
     </row>
-    <row r="20" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A20" s="4" t="s">
+    <row r="20" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
     </row>
-    <row r="21" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A21" s="4" t="s">
+    <row r="21" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5">
-        <f>SUM(B19:B23)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5">
-        <f>SUM(E19:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5">
-        <f>SUM(H19:H23)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5">
-        <f>SUM(K19:K23)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5">
-        <f>SUM(B24:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5">
-        <f>SUM(E24:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5">
-        <f>SUM(H24:H28)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5">
-        <f>SUM(K24:K28)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5">
-        <f>SUM(B29:B33)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5">
-        <f>SUM(E29:E33)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5">
-        <f>SUM(H29:H33)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5">
-        <f>SUM(K29:K33)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="5"/>
-    </row>
-    <row r="34" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5">
-        <f>SUM(B34:B38)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5">
-        <f>SUM(E34:E38)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5">
-        <f>SUM(H34:H38)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5">
-        <f>SUM(K34:K38)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="5">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="4">
         <f>SUM(B4:B18)</f>
-        <v>-52622.94</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5">
+        <v>-53330.25</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4">
         <f>SUM(E4:E18)</f>
-        <v>-156829.35</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5">
+        <v>-158023.76</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
         <f>SUM(H4:H18)</f>
-        <v>863.56</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5">
+        <v>791.27</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
         <f>SUM(K4:K18)</f>
-        <v>-49367.29</v>
-      </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+        <v>-67675.29</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1 C3:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="B3:B1048576">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1 F3:F1048576">
+  <conditionalFormatting sqref="B3:B1048576">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B1048576">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C1048576">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E1048576">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F1048576">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H1048576">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H1048576">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I1048576">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K1048576">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1 I3:I1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1 L3:L1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="K3:K1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L1048576">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5906,8 +5684,8 @@
   <sheetPr/>
   <dimension ref="B1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -5918,7 +5696,7 @@
         <v>晶科科技</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -5927,7 +5705,7 @@
         <v>中公教育</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -5936,7 +5714,7 @@
         <v>宏柏新材</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -5945,7 +5723,7 @@
         <v>中兵红箭</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/炒股记录分析.xlsx
+++ b/炒股记录分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10850"/>
+    <workbookView windowWidth="20930" windowHeight="10850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="主力资金流入和股价" sheetId="1" r:id="rId1"/>
@@ -270,13 +270,13 @@
     <t>2023.03.10</t>
   </si>
   <si>
-    <t>2023.03.11</t>
+    <t>2023.03.13</t>
   </si>
   <si>
-    <t>2023.03.12</t>
+    <t>2023.03.14</t>
   </si>
   <si>
-    <t>2023.03.13</t>
+    <t>2023.03.15</t>
   </si>
   <si>
     <t>汇总</t>
@@ -1128,13 +1128,13 @@
                   <c:v>2023.03.10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2023.03.11</c:v>
+                  <c:v>2023.03.13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2023.03.12</c:v>
+                  <c:v>2023.03.14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2023.03.13</c:v>
+                  <c:v>2023.03.15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1186,6 +1186,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,13 +1442,13 @@
                   <c:v>2023.03.10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2023.03.11</c:v>
+                  <c:v>2023.03.13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2023.03.12</c:v>
+                  <c:v>2023.03.14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2023.03.13</c:v>
+                  <c:v>2023.03.15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1497,6 +1500,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,13 +1764,13 @@
                   <c:v>2023.03.10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2023.03.11</c:v>
+                  <c:v>2023.03.13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2023.03.12</c:v>
+                  <c:v>2023.03.14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2023.03.13</c:v>
+                  <c:v>2023.03.15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1816,6 +1822,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>16.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,13 +2076,13 @@
                   <c:v>2023.03.10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2023.03.11</c:v>
+                  <c:v>2023.03.13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2023.03.12</c:v>
+                  <c:v>2023.03.14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2023.03.13</c:v>
+                  <c:v>2023.03.15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2116,6 +2125,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>24.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4890,10 +4902,10 @@
   <sheetPr/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
@@ -5507,18 +5519,34 @@
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4">
+        <v>-385.02</v>
+      </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="4">
+        <v>5.09</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-1985.51</v>
+      </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="4">
+        <v>5.11</v>
+      </c>
+      <c r="H19" s="4">
+        <v>94.64</v>
+      </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="J19" s="4">
+        <v>16.31</v>
+      </c>
+      <c r="K19" s="4">
+        <v>-627.47</v>
+      </c>
       <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="M19" s="4">
+        <v>25.26</v>
+      </c>
     </row>
     <row r="20" ht="22.75" customHeight="1" spans="1:13">
       <c r="A20" s="3" t="s">
@@ -5603,13 +5631,9 @@
     <cfRule type="cellIs" dxfId="0" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B1048576">
     <cfRule type="cellIs" dxfId="1" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B1048576">
     <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5626,8 +5650,6 @@
     <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E1048576">
     <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5644,8 +5666,6 @@
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H1048576">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5662,8 +5682,6 @@
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5684,7 +5702,7 @@
   <sheetPr/>
   <dimension ref="B1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>

--- a/炒股记录分析.xlsx
+++ b/炒股记录分析.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10850" activeTab="1"/>
+    <workbookView windowWidth="20930" windowHeight="10250"/>
   </bookViews>
   <sheets>
-    <sheet name="主力资金流入和股价" sheetId="1" r:id="rId1"/>
+    <sheet name="2023财年主力资金和股价" sheetId="1" r:id="rId1"/>
     <sheet name="股价走势图" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -169,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="1">
+    <comment ref="A22" authorId="1">
       <text>
         <r>
           <rPr>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>日期</t>
   </si>
@@ -222,63 +222,6 @@
     <t>股价</t>
   </si>
   <si>
-    <t>2023.02.01</t>
-  </si>
-  <si>
-    <t>2023.02.20</t>
-  </si>
-  <si>
-    <t>2023.02.21</t>
-  </si>
-  <si>
-    <t>2023.02.22</t>
-  </si>
-  <si>
-    <t>2023.02.23</t>
-  </si>
-  <si>
-    <t>2023.02.24</t>
-  </si>
-  <si>
-    <t>2023.02.27</t>
-  </si>
-  <si>
-    <t>2023.02.28</t>
-  </si>
-  <si>
-    <t>2023.03.01</t>
-  </si>
-  <si>
-    <t>2023.03.02</t>
-  </si>
-  <si>
-    <t>2023.03.03</t>
-  </si>
-  <si>
-    <t>2023.03.06</t>
-  </si>
-  <si>
-    <t>2023.03.07</t>
-  </si>
-  <si>
-    <t>2023.03.08</t>
-  </si>
-  <si>
-    <t>2023.03.09</t>
-  </si>
-  <si>
-    <t>2023.03.10</t>
-  </si>
-  <si>
-    <t>2023.03.13</t>
-  </si>
-  <si>
-    <t>2023.03.14</t>
-  </si>
-  <si>
-    <t>2023.03.15</t>
-  </si>
-  <si>
     <t>汇总</t>
   </si>
   <si>
@@ -289,12 +232,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -936,23 +880,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1009,12 +956,9 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="7" tint="0.8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1026,9 +970,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.8"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1081,70 +1028,74 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>主力资金流入和股价!$A$5:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>2023.02.21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2023.02.22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023.02.23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2023.02.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023.02.27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2023.02.28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2023.03.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2023.03.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2023.03.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2023.03.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023.03.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2023.03.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2023.03.09</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023.03.10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2023.03.13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2023.03.14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2023.03.15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'2023财年主力资金和股价'!$A$5:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日";@</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44980</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>主力资金流入和股价!$D$5:$D$21</c:f>
+              <c:f>'2023财年主力资金和股价'!$D$5:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>5.43</c:v>
                 </c:pt>
@@ -1189,6 +1140,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,7 +1162,7 @@
         <c:axId val="159858499"/>
         <c:axId val="227311153"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="159858499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1232,7 +1186,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1253,10 +1207,9 @@
         <c:crossAx val="227311153"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="227311153"/>
         <c:scaling>
@@ -1395,70 +1348,74 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>主力资金流入和股价!$A$5:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>2023.02.21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2023.02.22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023.02.23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2023.02.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023.02.27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2023.02.28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2023.03.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2023.03.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2023.03.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2023.03.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023.03.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2023.03.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2023.03.09</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023.03.10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2023.03.13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2023.03.14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2023.03.15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'2023财年主力资金和股价'!$A$5:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日";@</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44980</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>主力资金流入和股价!$G$5:$G$21</c:f>
+              <c:f>'2023财年主力资金和股价'!$G$5:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>5.89</c:v>
                 </c:pt>
@@ -1503,6 +1460,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1522,7 +1482,7 @@
         <c:axId val="159858499"/>
         <c:axId val="227311153"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="159858499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1546,7 +1506,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1567,10 +1527,9 @@
         <c:crossAx val="227311153"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="227311153"/>
         <c:scaling>
@@ -1717,70 +1676,74 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>主力资金流入和股价!$A$5:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>2023.02.21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2023.02.22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023.02.23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2023.02.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023.02.27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2023.02.28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2023.03.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2023.03.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2023.03.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2023.03.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023.03.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2023.03.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2023.03.09</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023.03.10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2023.03.13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2023.03.14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2023.03.15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'2023财年主力资金和股价'!$A$5:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日";@</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44980</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>主力资金流入和股价!$J$5:$J$21</c:f>
+              <c:f>'2023财年主力资金和股价'!$J$5:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>17.49</c:v>
                 </c:pt>
@@ -1825,6 +1788,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>16.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,7 +1810,7 @@
         <c:axId val="159858499"/>
         <c:axId val="227311153"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="159858499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1868,7 +1834,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1889,10 +1855,9 @@
         <c:crossAx val="227311153"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="227311153"/>
         <c:scaling>
@@ -2029,70 +1994,74 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>主力资金流入和股价!$A$5:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>2023.02.21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2023.02.22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023.02.23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2023.02.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023.02.27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2023.02.28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2023.03.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2023.03.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2023.03.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2023.03.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023.03.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2023.03.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2023.03.09</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023.03.10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2023.03.13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2023.03.14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2023.03.15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'2023财年主力资金和股价'!$A$5:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日";@</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44980</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>主力资金流入和股价!$M$5:$M$21</c:f>
+              <c:f>'2023财年主力资金和股价'!$M$5:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="3">
                   <c:v>22.49</c:v>
                 </c:pt>
@@ -2128,6 +2097,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>25.26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2147,7 +2119,7 @@
         <c:axId val="159858499"/>
         <c:axId val="227311153"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="159858499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2171,7 +2143,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2192,10 +2164,9 @@
         <c:crossAx val="227311153"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="227311153"/>
         <c:scaling>
@@ -4523,14 +4494,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114935</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4538,8 +4509,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2063750" y="6350"/>
-        <a:ext cx="5613400" cy="1530985"/>
+        <a:off x="2063750" y="184150"/>
+        <a:ext cx="10620375" cy="1527810"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4553,14 +4524,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>52705</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4568,8 +4539,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2089150" y="1606550"/>
-        <a:ext cx="5568950" cy="1739900"/>
+        <a:off x="2089150" y="1784350"/>
+        <a:ext cx="10536555" cy="1736090"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4583,14 +4554,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4598,8 +4569,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2095500" y="3403600"/>
-        <a:ext cx="5549900" cy="1758950"/>
+        <a:off x="2095500" y="3581400"/>
+        <a:ext cx="10500360" cy="1755140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4613,14 +4584,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>691515</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4628,8 +4599,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2095500" y="5334000"/>
-        <a:ext cx="5581015" cy="2590800"/>
+        <a:off x="2095500" y="5511800"/>
+        <a:ext cx="10558780" cy="2584450"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4900,17 +4871,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.4636363636364" customWidth="1"/>
+    <col min="1" max="1" width="11.4636363636364" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="18.0090909090909" customWidth="1"/>
     <col min="4" max="4" width="6.19090909090909" customWidth="1"/>
@@ -4926,768 +4897,801 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" ht="45.5" customHeight="1" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="A3" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="4">
+        <v>44977</v>
+      </c>
+      <c r="B4" s="5">
         <v>-32900</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <v>-81800</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5">
         <v>5584.93</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="4">
+        <v>44978</v>
+      </c>
+      <c r="B5" s="5">
         <v>-1123.87</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>5.43</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>597.54</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
         <v>5.89</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>34.98</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5">
         <v>17.49</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="4">
+        <v>44979</v>
+      </c>
+      <c r="B6" s="5">
         <v>-3949.81</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
         <v>5.38</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>-4712.58</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
         <v>5.79</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>-252.02</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
         <v>17.28</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="4">
+        <v>44980</v>
+      </c>
+      <c r="B7" s="5">
         <v>-3089.6</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>5.34</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>6346.71</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
         <v>5.82</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>-1149.65</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5">
         <v>17.11</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <v>-50947</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B8" s="5">
         <v>-1974.26</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>-11000</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>5.29</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>-8219.52</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>-7000</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>5.7</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>106.83</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>-1259</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="5">
         <v>17.22</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="5">
         <v>7953.14</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
         <v>7953</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="5">
         <v>22.49</v>
       </c>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="4">
+        <v>44984</v>
+      </c>
+      <c r="B9" s="5">
         <v>-2250</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>5.34</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>-6038.52</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
         <v>5.58</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>-269.84</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
         <v>17.18</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="5">
         <v>-2532.32</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
         <v>22.7</v>
       </c>
     </row>
     <row r="10" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="4">
+        <v>44985</v>
+      </c>
+      <c r="B10" s="5">
         <v>-532.89</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
         <v>5.41</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>1543.58</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
         <v>5.71</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>38.19</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
         <v>17.17</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="5">
         <v>-2703.37</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5">
         <v>22.68</v>
       </c>
     </row>
     <row r="11" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="4">
+        <v>44986</v>
+      </c>
+      <c r="B11" s="5">
         <v>174.13</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <v>5.37</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>1398.49</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
         <v>5.73</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>-647.88</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
         <v>17.12</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="5">
         <v>-4426.06</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5">
         <v>22.61</v>
       </c>
     </row>
     <row r="12" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B12" s="5">
         <v>-2022.05</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
         <v>5.27</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>-3182.03</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
         <v>5.7</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>-1363.84</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5">
         <v>16.64</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="5">
         <v>-14329</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5">
         <v>22.27</v>
       </c>
     </row>
     <row r="13" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="A13" s="4">
+        <v>44988</v>
+      </c>
+      <c r="B13" s="5">
         <v>154.02</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <f>SUM(B9:B13)</f>
         <v>-4476.79</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>5.3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>-1834.83</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <f>SUM(E9:E13)</f>
         <v>-8113.31</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>5.79</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>-250.05</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <f>SUM(H9:H13)</f>
         <v>-2493.42</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="5">
         <v>16.59</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="5">
         <v>26831</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="5">
         <f>SUM(K9:K13)</f>
         <v>2840.25</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="5">
         <v>23.46</v>
       </c>
     </row>
     <row r="14" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="A14" s="4">
+        <v>44991</v>
+      </c>
+      <c r="B14" s="5">
         <v>-422.3</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
         <v>5.31</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>-49271</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
         <v>5.22</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>-447.91</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
         <v>16.81</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="5">
         <v>-14129</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
+      <c r="L14" s="5"/>
+      <c r="M14" s="5">
         <v>23.26</v>
       </c>
     </row>
     <row r="15" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="A15" s="4">
+        <v>44992</v>
+      </c>
+      <c r="B15" s="5">
         <v>-2173.28</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
         <v>5.19</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>-4258.29</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
         <v>5.1</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>-304.77</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
         <v>16.65</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="5">
         <v>-6275.68</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4">
+      <c r="L15" s="5"/>
+      <c r="M15" s="5">
         <v>23.76</v>
       </c>
     </row>
     <row r="16" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="A16" s="4">
+        <v>44993</v>
+      </c>
+      <c r="B16" s="5">
         <v>-356.32</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
         <v>5.2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>-1295.51</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
         <v>5.14</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>-178.56</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5">
         <v>16.54</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="5">
         <v>27301</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5">
         <v>25.6</v>
       </c>
     </row>
     <row r="17" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="A17" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B17" s="5">
         <v>-2156.71</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
         <v>5.14</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>-6103.39</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
         <v>5.05</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>-36.85</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5">
         <v>16.73</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="5">
         <v>-16110</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5">
         <v>25.43</v>
       </c>
     </row>
     <row r="18" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="A18" s="4">
+        <v>44995</v>
+      </c>
+      <c r="B18" s="5">
         <v>-707.31</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <f>SUM(B14:B18)</f>
         <v>-5815.92</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>5.11</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>-1194.41</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <f>SUM(E14:E18)</f>
         <v>-62122.6</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>5.04</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>-72.29</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="5">
         <f>SUM(H14:H18)</f>
         <v>-1040.38</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="5">
         <v>16.45</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="5">
         <v>-18308</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="5">
         <f>SUM(K14:K18)</f>
         <v>-27521.68</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="5">
         <v>24.74</v>
       </c>
     </row>
     <row r="19" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="A19" s="4">
+        <v>44998</v>
+      </c>
+      <c r="B19" s="5">
         <v>-385.02</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
         <v>5.09</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>-1985.51</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
         <v>5.11</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>94.64</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5">
         <v>16.31</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="5">
         <v>-627.47</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4">
+      <c r="L19" s="5"/>
+      <c r="M19" s="5">
         <v>25.26</v>
       </c>
     </row>
     <row r="20" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="A20" s="4">
+        <v>44999</v>
+      </c>
+      <c r="B20" s="5">
+        <v>-2430.31</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
+        <v>5.03</v>
+      </c>
+      <c r="E20" s="5">
+        <v>-4119.1</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
+        <v>5.02</v>
+      </c>
+      <c r="H20" s="5">
+        <v>-1427.06</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="K20" s="5">
+        <v>-13160</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="21" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="A21" s="4">
+        <v>45000</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
-    <row r="22" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+    <row r="22" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A22" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
     </row>
     <row r="23" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
         <f>SUM(B4:B18)</f>
         <v>-53330.25</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
         <f>SUM(E4:E18)</f>
         <v>-158023.76</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5">
         <f>SUM(H4:H18)</f>
         <v>791.27</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5">
         <f>SUM(K4:K18)</f>
         <v>-67675.29</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B1048576">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E1048576">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I1048576">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K1048576">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L1048576">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5700,48 +5704,48 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C30"/>
+  <dimension ref="B2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" t="str">
-        <f>主力资金流入和股价!B1</f>
+    <row r="2" spans="2:3">
+      <c r="B2" t="str">
+        <f>'2023财年主力资金和股价'!B1</f>
         <v>晶科科技</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="str">
-        <f>主力资金流入和股价!E1</f>
+    <row r="11" spans="2:3">
+      <c r="B11" t="str">
+        <f>'2023财年主力资金和股价'!E1</f>
         <v>中公教育</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
+      <c r="C11" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="str">
-        <f>主力资金流入和股价!H1</f>
+    <row r="21" spans="2:3">
+      <c r="B21" t="str">
+        <f>'2023财年主力资金和股价'!H1</f>
         <v>宏柏新材</v>
       </c>
-      <c r="C20" t="s">
-        <v>28</v>
+      <c r="C21" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
-      <c r="B30" t="str">
-        <f>主力资金流入和股价!K1</f>
+    <row r="31" spans="2:3">
+      <c r="B31" t="str">
+        <f>'2023财年主力资金和股价'!K1</f>
         <v>中兵红箭</v>
       </c>
-      <c r="C30" t="s">
-        <v>28</v>
+      <c r="C31" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/炒股记录分析.xlsx
+++ b/炒股记录分析.xlsx
@@ -169,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="1">
+    <comment ref="A24" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1029,10 +1029,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$A$5:$A$22</c:f>
+              <c:f>'2023财年主力资金和股价'!$A$5:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日";@</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>44978</c:v>
                 </c:pt>
@@ -1086,16 +1086,22 @@
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>45001</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$D$5:$D$22</c:f>
+              <c:f>'2023财年主力资金和股价'!$D$5:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>5.43</c:v>
                 </c:pt>
@@ -1143,6 +1149,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1349,10 +1358,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$A$5:$A$22</c:f>
+              <c:f>'2023财年主力资金和股价'!$A$5:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日";@</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>44978</c:v>
                 </c:pt>
@@ -1406,16 +1415,22 @@
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>45001</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$G$5:$G$22</c:f>
+              <c:f>'2023财年主力资金和股价'!$G$5:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>5.89</c:v>
                 </c:pt>
@@ -1463,6 +1478,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>5.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,10 +1695,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$A$5:$A$22</c:f>
+              <c:f>'2023财年主力资金和股价'!$A$5:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日";@</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>44978</c:v>
                 </c:pt>
@@ -1734,16 +1752,22 @@
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>45001</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$J$5:$J$22</c:f>
+              <c:f>'2023财年主力资金和股价'!$J$5:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>17.49</c:v>
                 </c:pt>
@@ -1791,6 +1815,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,10 +2022,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$A$5:$A$22</c:f>
+              <c:f>'2023财年主力资金和股价'!$A$5:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日";@</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>44978</c:v>
                 </c:pt>
@@ -2052,16 +2079,22 @@
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>45001</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$M$5:$M$22</c:f>
+              <c:f>'2023财年主力资金和股价'!$M$5:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="3">
                   <c:v>22.49</c:v>
                 </c:pt>
@@ -2100,6 +2133,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>25.49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4871,12 +4907,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
@@ -5556,18 +5592,34 @@
       <c r="A21" s="4">
         <v>45000</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5">
+        <v>-289.72</v>
+      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="5">
+        <v>5.07</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-6235.17</v>
+      </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="5">
+        <v>4.92</v>
+      </c>
+      <c r="H21" s="5">
+        <v>-300.49</v>
+      </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="J21" s="5">
+        <v>16.24</v>
+      </c>
+      <c r="K21" s="5">
+        <v>-19242</v>
+      </c>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="M21" s="5">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="22" ht="22.75" customHeight="1" spans="1:13">
       <c r="A22" s="4">
@@ -5586,52 +5638,98 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A23" s="6"/>
+    <row r="23" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A23" s="4">
+        <v>45002</v>
+      </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <f>SUM(B19:B23)</f>
+        <v>-3105.05</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5">
+        <f>SUM(E19:E23)</f>
+        <v>-12339.78</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="5">
+        <f>SUM(H19:H23)</f>
+        <v>-1632.91</v>
+      </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="L23" s="5">
+        <f>SUM(K19:K23)</f>
+        <v>-33029.47</v>
+      </c>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="5">
-        <f>SUM(B4:B18)</f>
-        <v>-53330.25</v>
-      </c>
+    <row r="24" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A24" s="4">
+        <v>45003</v>
+      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5">
-        <f>SUM(E4:E18)</f>
-        <v>-158023.76</v>
-      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5">
-        <f>SUM(H4:H18)</f>
-        <v>791.27</v>
-      </c>
+      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="5">
-        <f>SUM(K4:K18)</f>
-        <v>-67675.29</v>
-      </c>
+      <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
+    <row r="25" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="5">
+        <f>SUM(B4:B18)</f>
+        <v>-53330.25</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
+        <f>SUM(E4:E18)</f>
+        <v>-158023.76</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5">
+        <f>SUM(H4:H18)</f>
+        <v>791.27</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5">
+        <f>SUM(K4:K18)</f>
+        <v>-67675.29</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B1048576">
+  <conditionalFormatting sqref="B3:B1048576 E23 H23 K23">
     <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5642,12 +5740,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C1048576">
+  <conditionalFormatting sqref="C3:C1048576 F23 I23 L23">
     <cfRule type="cellIs" dxfId="2" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E1048576">
+  <conditionalFormatting sqref="E3:E22 E24:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5658,12 +5756,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F1048576">
+  <conditionalFormatting sqref="F3:F22 F24:F1048576">
     <cfRule type="cellIs" dxfId="2" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H1048576">
+  <conditionalFormatting sqref="H3:H22 H24:H1048576">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5674,12 +5772,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I1048576">
+  <conditionalFormatting sqref="I3:I22 I24:I1048576">
     <cfRule type="cellIs" dxfId="2" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K1048576">
+  <conditionalFormatting sqref="K3:K22 K24:K1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5690,7 +5788,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L1048576">
+  <conditionalFormatting sqref="L3:L22 L24:L1048576">
     <cfRule type="cellIs" dxfId="2" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/炒股记录分析.xlsx
+++ b/炒股记录分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10250"/>
+    <workbookView windowWidth="20930" windowHeight="10250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2023财年主力资金和股价" sheetId="1" r:id="rId1"/>
@@ -237,8 +237,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -414,13 +414,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -884,22 +884,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1152,6 +1152,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1481,6 +1484,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1819,6 +1825,9 @@
                 <c:pt idx="16">
                   <c:v>16.24</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.82</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2136,6 +2145,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4624,10 +4636,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>81280</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>697230</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4636,7 +4648,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2095500" y="5511800"/>
-        <a:ext cx="10558780" cy="2584450"/>
+        <a:ext cx="10476230" cy="2622550"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4909,10 +4921,10 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
@@ -5625,18 +5637,34 @@
       <c r="A22" s="4">
         <v>45001</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5">
+        <v>-1837.79</v>
+      </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="E22" s="5">
+        <v>6754.32</v>
+      </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="G22" s="5">
+        <v>4.97</v>
+      </c>
+      <c r="H22" s="5">
+        <v>839.95</v>
+      </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="J22" s="5">
+        <v>16.82</v>
+      </c>
+      <c r="K22" s="5">
+        <v>-32106</v>
+      </c>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="M22" s="5">
+        <v>23.39</v>
+      </c>
     </row>
     <row r="23" ht="22.75" customHeight="1" spans="1:13">
       <c r="A23" s="4">
@@ -5645,25 +5673,25 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5">
         <f>SUM(B19:B23)</f>
-        <v>-3105.05</v>
+        <v>-4942.84</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5">
         <f>SUM(E19:E23)</f>
-        <v>-12339.78</v>
+        <v>-5585.46</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5">
         <f>SUM(H19:H23)</f>
-        <v>-1632.91</v>
+        <v>-792.96</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5">
         <f>SUM(K19:K23)</f>
-        <v>-33029.47</v>
+        <v>-65135.47</v>
       </c>
       <c r="M23" s="5"/>
     </row>
@@ -5804,7 +5832,7 @@
   <sheetPr/>
   <dimension ref="B2:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/炒股记录分析.xlsx
+++ b/炒股记录分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10250" activeTab="1"/>
+    <workbookView windowWidth="20930" windowHeight="10850"/>
   </bookViews>
   <sheets>
     <sheet name="2023财年主力资金和股价" sheetId="1" r:id="rId1"/>
@@ -414,17 +414,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1156,6 +1156,9 @@
                 <c:pt idx="17">
                   <c:v>4.96</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.95</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1487,6 +1490,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1828,6 +1834,9 @@
                 <c:pt idx="17">
                   <c:v>16.82</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.77</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2148,6 +2157,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>23.39</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4921,10 +4933,10 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
@@ -5670,30 +5682,46 @@
       <c r="A23" s="4">
         <v>45002</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5">
+        <v>436.58</v>
+      </c>
       <c r="C23" s="5">
         <f>SUM(B19:B23)</f>
-        <v>-4942.84</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+        <v>-4506.26</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4.95</v>
+      </c>
+      <c r="E23" s="5">
+        <v>-984.37</v>
+      </c>
       <c r="F23" s="5">
         <f>SUM(E19:E23)</f>
-        <v>-5585.46</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+        <v>-6569.83</v>
+      </c>
+      <c r="G23" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="H23" s="5">
+        <v>96.17</v>
+      </c>
       <c r="I23" s="5">
         <f>SUM(H19:H23)</f>
-        <v>-792.96</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+        <v>-696.79</v>
+      </c>
+      <c r="J23" s="5">
+        <v>16.77</v>
+      </c>
+      <c r="K23" s="5">
+        <v>-12652</v>
+      </c>
       <c r="L23" s="5">
         <f>SUM(K19:K23)</f>
-        <v>-65135.47</v>
-      </c>
-      <c r="M23" s="5"/>
+        <v>-77787.47</v>
+      </c>
+      <c r="M23" s="5">
+        <v>23.11</v>
+      </c>
     </row>
     <row r="24" ht="22.75" customHeight="1" spans="1:13">
       <c r="A24" s="4">
@@ -5832,7 +5860,7 @@
   <sheetPr/>
   <dimension ref="B2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/炒股记录分析.xlsx
+++ b/炒股记录分析.xlsx
@@ -169,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="1">
+    <comment ref="A29" authorId="1">
       <text>
         <r>
           <rPr>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>日期</t>
   </si>
@@ -419,12 +419,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1028,80 +1028,94 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$A$5:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日";@</c:formatCode>
-                <c:ptCount val="20"/>
+            <c:strRef>
+              <c:f>'2023财年主力资金和股价'!$A$5:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44978</c:v>
+                  <c:v>2月21日</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44979</c:v>
+                  <c:v>2月22日</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44980</c:v>
+                  <c:v>2月23日</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44981</c:v>
+                  <c:v>2月24日</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44984</c:v>
+                  <c:v>2月27日</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44985</c:v>
+                  <c:v>2月28日</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44986</c:v>
+                  <c:v>3月1日</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44987</c:v>
+                  <c:v>3月2日</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44988</c:v>
+                  <c:v>3月3日</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44991</c:v>
+                  <c:v>3月6日</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44992</c:v>
+                  <c:v>3月7日</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44993</c:v>
+                  <c:v>3月8日</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44994</c:v>
+                  <c:v>3月9日</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44995</c:v>
+                  <c:v>3月10日</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44998</c:v>
+                  <c:v>3月13日</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44999</c:v>
+                  <c:v>3月14日</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45000</c:v>
+                  <c:v>3月15日</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45001</c:v>
+                  <c:v>3月16日</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45002</c:v>
+                  <c:v>3月17日</c:v>
                 </c:pt>
                 <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>3月20日</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月21日</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月22日</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月23日</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月24日</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>日期</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$D$5:$D$24</c:f>
+              <c:f>'2023财年主力资金和股价'!$D$5:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>5.43</c:v>
                 </c:pt>
@@ -1158,11 +1172,14 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1173,7 +1190,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="0"/>
-        <c:smooth val="0"/>
+        <c:smooth val="1"/>
         <c:axId val="159858499"/>
         <c:axId val="227311153"/>
       </c:lineChart>
@@ -1222,6 +1239,7 @@
         <c:crossAx val="227311153"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
@@ -1363,80 +1381,94 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$A$5:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日";@</c:formatCode>
-                <c:ptCount val="20"/>
+            <c:strRef>
+              <c:f>'2023财年主力资金和股价'!$A$5:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44978</c:v>
+                  <c:v>2月21日</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44979</c:v>
+                  <c:v>2月22日</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44980</c:v>
+                  <c:v>2月23日</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44981</c:v>
+                  <c:v>2月24日</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44984</c:v>
+                  <c:v>2月27日</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44985</c:v>
+                  <c:v>2月28日</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44986</c:v>
+                  <c:v>3月1日</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44987</c:v>
+                  <c:v>3月2日</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44988</c:v>
+                  <c:v>3月3日</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44991</c:v>
+                  <c:v>3月6日</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44992</c:v>
+                  <c:v>3月7日</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44993</c:v>
+                  <c:v>3月8日</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44994</c:v>
+                  <c:v>3月9日</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44995</c:v>
+                  <c:v>3月10日</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44998</c:v>
+                  <c:v>3月13日</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44999</c:v>
+                  <c:v>3月14日</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45000</c:v>
+                  <c:v>3月15日</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45001</c:v>
+                  <c:v>3月16日</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45002</c:v>
+                  <c:v>3月17日</c:v>
                 </c:pt>
                 <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>3月20日</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月21日</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月22日</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月23日</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月24日</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>日期</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$G$5:$G$24</c:f>
+              <c:f>'2023财年主力资金和股价'!$G$5:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>5.89</c:v>
                 </c:pt>
@@ -1493,11 +1525,14 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1508,7 +1543,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="0"/>
-        <c:smooth val="0"/>
+        <c:smooth val="1"/>
         <c:axId val="159858499"/>
         <c:axId val="227311153"/>
       </c:lineChart>
@@ -1557,6 +1592,7 @@
         <c:crossAx val="227311153"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
@@ -1564,6 +1600,7 @@
         <c:axId val="227311153"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1706,80 +1743,94 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$A$5:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日";@</c:formatCode>
-                <c:ptCount val="20"/>
+            <c:strRef>
+              <c:f>'2023财年主力资金和股价'!$A$5:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44978</c:v>
+                  <c:v>2月21日</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44979</c:v>
+                  <c:v>2月22日</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44980</c:v>
+                  <c:v>2月23日</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44981</c:v>
+                  <c:v>2月24日</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44984</c:v>
+                  <c:v>2月27日</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44985</c:v>
+                  <c:v>2月28日</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44986</c:v>
+                  <c:v>3月1日</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44987</c:v>
+                  <c:v>3月2日</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44988</c:v>
+                  <c:v>3月3日</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44991</c:v>
+                  <c:v>3月6日</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44992</c:v>
+                  <c:v>3月7日</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44993</c:v>
+                  <c:v>3月8日</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44994</c:v>
+                  <c:v>3月9日</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44995</c:v>
+                  <c:v>3月10日</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44998</c:v>
+                  <c:v>3月13日</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44999</c:v>
+                  <c:v>3月14日</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45000</c:v>
+                  <c:v>3月15日</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45001</c:v>
+                  <c:v>3月16日</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45002</c:v>
+                  <c:v>3月17日</c:v>
                 </c:pt>
                 <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>3月20日</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月21日</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月22日</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月23日</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月24日</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>日期</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$J$5:$J$24</c:f>
+              <c:f>'2023财年主力资金和股价'!$J$5:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>17.49</c:v>
                 </c:pt>
@@ -1836,11 +1887,14 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>16.77</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1851,7 +1905,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="0"/>
-        <c:smooth val="0"/>
+        <c:smooth val="1"/>
         <c:axId val="159858499"/>
         <c:axId val="227311153"/>
       </c:lineChart>
@@ -1900,6 +1954,7 @@
         <c:crossAx val="227311153"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
@@ -2039,80 +2094,94 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$A$5:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日";@</c:formatCode>
-                <c:ptCount val="20"/>
+            <c:strRef>
+              <c:f>'2023财年主力资金和股价'!$A$5:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44978</c:v>
+                  <c:v>2月21日</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44979</c:v>
+                  <c:v>2月22日</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44980</c:v>
+                  <c:v>2月23日</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44981</c:v>
+                  <c:v>2月24日</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44984</c:v>
+                  <c:v>2月27日</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44985</c:v>
+                  <c:v>2月28日</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44986</c:v>
+                  <c:v>3月1日</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44987</c:v>
+                  <c:v>3月2日</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44988</c:v>
+                  <c:v>3月3日</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44991</c:v>
+                  <c:v>3月6日</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44992</c:v>
+                  <c:v>3月7日</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44993</c:v>
+                  <c:v>3月8日</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44994</c:v>
+                  <c:v>3月9日</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44995</c:v>
+                  <c:v>3月10日</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44998</c:v>
+                  <c:v>3月13日</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44999</c:v>
+                  <c:v>3月14日</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45000</c:v>
+                  <c:v>3月15日</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45001</c:v>
+                  <c:v>3月16日</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45002</c:v>
+                  <c:v>3月17日</c:v>
                 </c:pt>
                 <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>3月20日</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月21日</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月22日</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月23日</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月24日</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>日期</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$M$5:$M$24</c:f>
+              <c:f>'2023财年主力资金和股价'!$M$5:$M$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="3">
                   <c:v>22.49</c:v>
                 </c:pt>
@@ -2160,11 +2229,14 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>23.11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2175,7 +2247,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="0"/>
-        <c:smooth val="0"/>
+        <c:smooth val="1"/>
         <c:axId val="159858499"/>
         <c:axId val="227311153"/>
       </c:lineChart>
@@ -2224,6 +2296,7 @@
         <c:crossAx val="227311153"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
@@ -4931,12 +5004,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
@@ -5725,23 +5798,41 @@
     </row>
     <row r="24" ht="22.75" customHeight="1" spans="1:13">
       <c r="A24" s="4">
-        <v>45003</v>
-      </c>
-      <c r="B24" s="5"/>
+        <v>45005</v>
+      </c>
+      <c r="B24" s="5">
+        <v>367.2</v>
+      </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="5">
+        <v>5</v>
+      </c>
+      <c r="E24" s="5">
+        <v>-8785.48</v>
+      </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="G24" s="5">
+        <v>4.84</v>
+      </c>
+      <c r="H24" s="5">
+        <v>-147.25</v>
+      </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="J24" s="5">
+        <v>16.56</v>
+      </c>
+      <c r="K24" s="5">
+        <v>-18523</v>
+      </c>
       <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="M24" s="5">
+        <v>22.34</v>
+      </c>
     </row>
-    <row r="25" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A25" s="6"/>
+    <row r="25" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A25" s="4">
+        <v>45006</v>
+      </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -5755,37 +5846,132 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="5">
-        <f>SUM(B4:B18)</f>
-        <v>-53330.25</v>
-      </c>
+    <row r="26" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A26" s="4">
+        <v>45007</v>
+      </c>
+      <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5">
-        <f>SUM(E4:E18)</f>
-        <v>-158023.76</v>
-      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5">
-        <f>SUM(H4:H18)</f>
-        <v>791.27</v>
-      </c>
+      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5">
-        <f>SUM(K4:K18)</f>
-        <v>-67675.29</v>
-      </c>
+      <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
+    <row r="27" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A27" s="4">
+        <v>45008</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A28" s="4">
+        <v>45009</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5">
+        <f>SUM(B24:B28)</f>
+        <v>367.2</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
+        <f>SUM(E24:E28)</f>
+        <v>-8785.48</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5">
+        <f>SUM(H24:H28)</f>
+        <v>-147.25</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5">
+        <f>SUM(K24:K28)</f>
+        <v>-18523</v>
+      </c>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A30" s="6"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="5">
+        <f>SUM(B4:B18)</f>
+        <v>-53330.25</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
+        <f>SUM(E4:E18)</f>
+        <v>-158023.76</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5">
+        <f>SUM(H4:H18)</f>
+        <v>791.27</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5">
+        <f>SUM(K4:K18)</f>
+        <v>-67675.29</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B1048576 E23 H23 K23">
+  <conditionalFormatting sqref="B3:B1048576 E23:E28 H23:H28 K23:K28">
     <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5796,12 +5982,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C1048576 F23 I23 L23">
+  <conditionalFormatting sqref="C3:C1048576 F23:F28 I23 L23:L28 I28">
     <cfRule type="cellIs" dxfId="2" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E22 E24:E1048576">
+  <conditionalFormatting sqref="E3:E22 E29:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5812,12 +5998,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F22 F24:F1048576">
+  <conditionalFormatting sqref="F3:F22 F29:F1048576">
     <cfRule type="cellIs" dxfId="2" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H22 H24:H1048576">
+  <conditionalFormatting sqref="H3:H22 H29:H1048576">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5828,12 +6014,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I22 I24:I1048576">
+  <conditionalFormatting sqref="I3:I22 I24:I27 I29:I1048576">
     <cfRule type="cellIs" dxfId="2" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K22 K24:K1048576">
+  <conditionalFormatting sqref="K3:K22 K29:K1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5844,7 +6030,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L22 L24:L1048576">
+  <conditionalFormatting sqref="L3:L22 L29:L1048576">
     <cfRule type="cellIs" dxfId="2" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5860,7 +6046,7 @@
   <sheetPr/>
   <dimension ref="B2:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/炒股记录分析.xlsx
+++ b/炒股记录分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10850"/>
+    <workbookView windowWidth="20930" windowHeight="10250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2023财年主力资金和股价" sheetId="1" r:id="rId1"/>
@@ -240,10 +240,16 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="华文楷体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -414,17 +420,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -735,49 +741,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,109 +792,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -900,6 +906,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1174,6 +1186,9 @@
                   <c:v>4.95</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1528,6 +1543,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1891,6 +1909,9 @@
                 <c:pt idx="19">
                   <c:v>16.56</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.96</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2232,6 +2253,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>22.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4642,8 +4666,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2063750" y="184150"/>
-        <a:ext cx="10620375" cy="1527810"/>
+        <a:off x="1968500" y="292100"/>
+        <a:ext cx="10620375" cy="2391410"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4672,8 +4696,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2089150" y="1784350"/>
-        <a:ext cx="10536555" cy="1736090"/>
+        <a:off x="1993900" y="2863850"/>
+        <a:ext cx="10536555" cy="2707640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4702,8 +4726,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2095500" y="3581400"/>
-        <a:ext cx="10500360" cy="1755140"/>
+        <a:off x="2000250" y="5740400"/>
+        <a:ext cx="10500360" cy="2834640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4732,8 +4756,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2095500" y="5511800"/>
-        <a:ext cx="10476230" cy="2622550"/>
+        <a:off x="2000250" y="8858250"/>
+        <a:ext cx="10476230" cy="4133850"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5006,15 +5030,15 @@
   <sheetPr/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.4636363636364" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4636363636364" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="18.0090909090909" customWidth="1"/>
     <col min="4" max="4" width="6.19090909090909" customWidth="1"/>
@@ -5030,945 +5054,961 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" ht="45.5" customHeight="1" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>44958</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>44977</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>-32900</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
         <v>-81800</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
         <v>5584.93</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>44978</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>-1123.87</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
         <v>5.43</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>597.54</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7">
         <v>5.89</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="7">
         <v>34.98</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
         <v>17.49</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>44979</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>-3949.81</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
         <v>5.38</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>-4712.58</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
         <v>5.79</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="7">
         <v>-252.02</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7">
         <v>17.28</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>44980</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>-3089.6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
         <v>5.34</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <v>6346.71</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
         <v>5.82</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="7">
         <v>-1149.65</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7">
         <v>17.11</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="7">
         <v>-50947</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>44981</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>-1974.26</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>-11000</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>5.29</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <v>-8219.52</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <v>-7000</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="7">
         <v>5.7</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="7">
         <v>106.83</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="7">
         <v>-1259</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="7">
         <v>17.22</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="7">
         <v>7953.14</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="7">
         <v>7953</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="7">
         <v>22.49</v>
       </c>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>44984</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>-2250</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
         <v>5.34</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <v>-6038.52</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
         <v>5.58</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="7">
         <v>-269.84</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7">
         <v>17.18</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="7">
         <v>-2532.32</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7">
         <v>22.7</v>
       </c>
     </row>
     <row r="10" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>44985</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>-532.89</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
         <v>5.41</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <v>1543.58</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
         <v>5.71</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="7">
         <v>38.19</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7">
         <v>17.17</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="7">
         <v>-2703.37</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7">
         <v>22.68</v>
       </c>
     </row>
     <row r="11" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>44986</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>174.13</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
         <v>5.37</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>1398.49</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
         <v>5.73</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="7">
         <v>-647.88</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7">
         <v>17.12</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="7">
         <v>-4426.06</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7">
         <v>22.61</v>
       </c>
     </row>
     <row r="12" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>44987</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>-2022.05</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
         <v>5.27</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="7">
         <v>-3182.03</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
         <v>5.7</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="7">
         <v>-1363.84</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7">
         <v>16.64</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="7">
         <v>-14329</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7">
         <v>22.27</v>
       </c>
     </row>
     <row r="13" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A13" s="4">
+      <c r="A13" s="6">
         <v>44988</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>154.02</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <f>SUM(B9:B13)</f>
         <v>-4476.79</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="7">
         <v>5.3</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <v>-1834.83</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="7">
         <f>SUM(E9:E13)</f>
         <v>-8113.31</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="7">
         <v>5.79</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="7">
         <v>-250.05</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="7">
         <f>SUM(H9:H13)</f>
         <v>-2493.42</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="7">
         <v>16.59</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="7">
         <v>26831</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="7">
         <f>SUM(K9:K13)</f>
         <v>2840.25</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="7">
         <v>23.46</v>
       </c>
     </row>
     <row r="14" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>44991</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>-422.3</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7">
         <v>5.31</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <v>-49271</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
         <v>5.22</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="7">
         <v>-447.91</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7">
         <v>16.81</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="7">
         <v>-14129</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5">
+      <c r="L14" s="7"/>
+      <c r="M14" s="7">
         <v>23.26</v>
       </c>
     </row>
     <row r="15" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>44992</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>-2173.28</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7">
         <v>5.19</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <v>-4258.29</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
         <v>5.1</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="7">
         <v>-304.77</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7">
         <v>16.65</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="7">
         <v>-6275.68</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5">
+      <c r="L15" s="7"/>
+      <c r="M15" s="7">
         <v>23.76</v>
       </c>
     </row>
     <row r="16" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A16" s="4">
+      <c r="A16" s="6">
         <v>44993</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>-356.32</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7">
         <v>5.2</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <v>-1295.51</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
         <v>5.14</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="7">
         <v>-178.56</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7">
         <v>16.54</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="7">
         <v>27301</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5">
+      <c r="L16" s="7"/>
+      <c r="M16" s="7">
         <v>25.6</v>
       </c>
     </row>
     <row r="17" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A17" s="4">
+      <c r="A17" s="6">
         <v>44994</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="7">
         <v>-2156.71</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7">
         <v>5.14</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <v>-6103.39</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
         <v>5.05</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="7">
         <v>-36.85</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7">
         <v>16.73</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="7">
         <v>-16110</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5">
+      <c r="L17" s="7"/>
+      <c r="M17" s="7">
         <v>25.43</v>
       </c>
     </row>
     <row r="18" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A18" s="4">
+      <c r="A18" s="6">
         <v>44995</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="7">
         <v>-707.31</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <f>SUM(B14:B18)</f>
         <v>-5815.92</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="7">
         <v>5.11</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <v>-1194.41</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="7">
         <f>SUM(E14:E18)</f>
         <v>-62122.6</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="7">
         <v>5.04</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="7">
         <v>-72.29</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="7">
         <f>SUM(H14:H18)</f>
         <v>-1040.38</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="7">
         <v>16.45</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="7">
         <v>-18308</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="7">
         <f>SUM(K14:K18)</f>
         <v>-27521.68</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="7">
         <v>24.74</v>
       </c>
     </row>
     <row r="19" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A19" s="4">
+      <c r="A19" s="6">
         <v>44998</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="7">
         <v>-385.02</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
         <v>5.09</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="7">
         <v>-1985.51</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
         <v>5.11</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="7">
         <v>94.64</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7">
         <v>16.31</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="7">
         <v>-627.47</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5">
+      <c r="L19" s="7"/>
+      <c r="M19" s="7">
         <v>25.26</v>
       </c>
     </row>
     <row r="20" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A20" s="4">
+      <c r="A20" s="6">
         <v>44999</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="7">
         <v>-2430.31</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7">
         <v>5.03</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7">
         <v>-4119.1</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
         <v>5.02</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="7">
         <v>-1427.06</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5">
+      <c r="I20" s="7"/>
+      <c r="J20" s="7">
         <v>15.8</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="7">
         <v>-13160</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7">
         <v>25.49</v>
       </c>
     </row>
     <row r="21" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A21" s="4">
+      <c r="A21" s="6">
         <v>45000</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="7">
         <v>-289.72</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7">
         <v>5.07</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="7">
         <v>-6235.17</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7">
         <v>4.92</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="7">
         <v>-300.49</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5">
+      <c r="I21" s="7"/>
+      <c r="J21" s="7">
         <v>16.24</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="7">
         <v>-19242</v>
       </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5">
+      <c r="L21" s="7"/>
+      <c r="M21" s="7">
         <v>24.8</v>
       </c>
     </row>
     <row r="22" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A22" s="4">
+      <c r="A22" s="6">
         <v>45001</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="7">
         <v>-1837.79</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7">
         <v>4.96</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="7">
         <v>6754.32</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7">
         <v>4.97</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="7">
         <v>839.95</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7">
         <v>16.82</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="7">
         <v>-32106</v>
       </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5">
+      <c r="L22" s="7"/>
+      <c r="M22" s="7">
         <v>23.39</v>
       </c>
     </row>
     <row r="23" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A23" s="4">
+      <c r="A23" s="6">
         <v>45002</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="7">
         <v>436.58</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
         <f>SUM(B19:B23)</f>
         <v>-4506.26</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="7">
         <v>4.95</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="7">
         <v>-984.37</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="7">
         <f>SUM(E19:E23)</f>
         <v>-6569.83</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="7">
         <v>4.96</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="7">
         <v>96.17</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="7">
         <f>SUM(H19:H23)</f>
         <v>-696.79</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="7">
         <v>16.77</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="7">
         <v>-12652</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="7">
         <f>SUM(K19:K23)</f>
         <v>-77787.47</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="7">
         <v>23.11</v>
       </c>
     </row>
     <row r="24" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A24" s="4">
+      <c r="A24" s="6">
         <v>45005</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="7">
         <v>367.2</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7">
         <v>5</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="7">
         <v>-8785.48</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
         <v>4.84</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="7">
         <v>-147.25</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5">
+      <c r="I24" s="7"/>
+      <c r="J24" s="7">
         <v>16.56</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="7">
         <v>-18523</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5">
+      <c r="L24" s="7"/>
+      <c r="M24" s="7">
         <v>22.34</v>
       </c>
     </row>
     <row r="25" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A25" s="4">
+      <c r="A25" s="6">
         <v>45006</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="B25" s="7">
+        <v>-652.06</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7">
+        <v>5</v>
+      </c>
+      <c r="E25" s="7">
+        <v>7227.91</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
+        <v>5.03</v>
+      </c>
+      <c r="H25" s="7">
+        <v>-5.55</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7">
+        <v>16.96</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1466.33</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7">
+        <v>23.38</v>
+      </c>
     </row>
     <row r="26" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A26" s="4">
+      <c r="A26" s="6">
         <v>45007</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A27" s="4">
+      <c r="A27" s="6">
         <v>45008</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A28" s="4">
+      <c r="A28" s="6">
         <v>45009</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7">
         <f>SUM(B24:B28)</f>
-        <v>367.2</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5">
+        <v>-284.86</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7">
         <f>SUM(E24:E28)</f>
-        <v>-8785.48</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5">
+        <v>-1557.57</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
         <f>SUM(H24:H28)</f>
-        <v>-147.25</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5">
+        <v>-152.8</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7">
         <f>SUM(K24:K28)</f>
-        <v>-18523</v>
-      </c>
-      <c r="M28" s="5"/>
+        <v>-17056.67</v>
+      </c>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A30" s="6"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="7">
         <f>SUM(B4:B18)</f>
         <v>-53330.25</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7">
         <f>SUM(E4:E18)</f>
         <v>-158023.76</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5">
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7">
         <f>SUM(H4:H18)</f>
         <v>791.27</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5">
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7">
         <f>SUM(K4:K18)</f>
         <v>-67675.29</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B1048576 E23:E28 H23:H28 K23:K28">
@@ -6046,45 +6086,50 @@
   <sheetPr/>
   <dimension ref="B2:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="22.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="6.18181818181818" customWidth="1"/>
+    <col min="2" max="2" width="12.4545454545455" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" t="str">
+      <c r="B2" s="2" t="str">
         <f>'2023财年主力资金和股价'!B1</f>
         <v>晶科科技</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" t="str">
+      <c r="B11" s="2" t="str">
         <f>'2023财年主力资金和股价'!E1</f>
         <v>中公教育</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" t="str">
+      <c r="B21" s="2" t="str">
         <f>'2023财年主力资金和股价'!H1</f>
         <v>宏柏新材</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" t="str">
+      <c r="B31" s="2" t="str">
         <f>'2023财年主力资金和股价'!K1</f>
         <v>中兵红箭</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/炒股记录分析.xlsx
+++ b/炒股记录分析.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10250" activeTab="1"/>
+    <workbookView windowWidth="20930" windowHeight="10850"/>
   </bookViews>
   <sheets>
     <sheet name="2023财年主力资金和股价" sheetId="1" r:id="rId1"/>
     <sheet name="股价走势图" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="股价及主力交易走势图" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>日期</t>
   </si>
@@ -420,17 +420,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -886,11 +886,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1189,6 +1186,12 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.06</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1546,6 +1549,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1912,6 +1921,12 @@
                 <c:pt idx="20">
                   <c:v>16.96</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.96</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2257,6 +2272,12 @@
                 <c:pt idx="20">
                   <c:v>23.38</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.55</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2421,6 +2442,696 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"主力资金"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>主力资金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023财年主力资金和股价'!$A$5:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日";@</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44980</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45001</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45006</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45007</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45008</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023财年主力资金和股价'!$B$5:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-1123.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3949.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3089.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1974.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-532.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>174.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2022.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-422.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2173.28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-356.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2156.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-707.31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-385.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2430.31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-289.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1837.79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>436.58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>367.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-652.06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>400.18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>390.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="399566974"/>
+        <c:axId val="660397491"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"股价"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股价</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023财年主力资金和股价'!$A$5:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日";@</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44980</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45001</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45006</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45007</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45008</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023财年主力资金和股价'!$D$5:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.06</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="926952066"/>
+        <c:axId val="211162454"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="399566974"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660397491"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="660397491"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399566974"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="926952066"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211162454"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="211162454"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="926952066"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.427457201401282"/>
+          <c:y val="0.888968824940048"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2581,6 +3292,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4130,6 +4881,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4770,6 +6037,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>93980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>248285</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2489200" y="190500"/>
+        <a:ext cx="10565130" cy="2521585"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -5030,15 +6332,15 @@
   <sheetPr/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.4636363636364" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.4636363636364" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="18.0090909090909" customWidth="1"/>
     <col min="4" max="4" width="6.19090909090909" customWidth="1"/>
@@ -5054,961 +6356,993 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" ht="45.5" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>44958</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>44977</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>-32900</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>-81800</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
         <v>5584.93</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>44978</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>-1123.87</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
         <v>5.43</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>597.54</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
         <v>5.89</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>34.98</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6">
         <v>17.49</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>44979</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>-3949.81</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
         <v>5.38</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>-4712.58</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
         <v>5.79</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>-252.02</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6">
         <v>17.28</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>44980</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>-3089.6</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
         <v>5.34</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>6346.71</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
         <v>5.82</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>-1149.65</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6">
         <v>17.11</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>-50947</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>44981</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>-1974.26</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>-11000</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>5.29</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>-8219.52</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>-7000</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>5.7</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>106.83</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>-1259</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>17.22</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>7953.14</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>7953</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>22.49</v>
       </c>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>44984</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>-2250</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
         <v>5.34</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>-6038.52</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
         <v>5.58</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>-269.84</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
         <v>17.18</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>-2532.32</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7">
+      <c r="L9" s="6"/>
+      <c r="M9" s="6">
         <v>22.7</v>
       </c>
     </row>
     <row r="10" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>44985</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>-532.89</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
         <v>5.41</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>1543.58</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <v>5.71</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>38.19</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6">
         <v>17.17</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>-2703.37</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6">
         <v>22.68</v>
       </c>
     </row>
     <row r="11" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>44986</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>174.13</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
         <v>5.37</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>1398.49</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
         <v>5.73</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>-647.88</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6">
         <v>17.12</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>-4426.06</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6">
         <v>22.61</v>
       </c>
     </row>
     <row r="12" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>44987</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>-2022.05</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
         <v>5.27</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>-3182.03</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
         <v>5.7</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>-1363.84</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6">
         <v>16.64</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>-14329</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6">
         <v>22.27</v>
       </c>
     </row>
     <row r="13" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>44988</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>154.02</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f>SUM(B9:B13)</f>
         <v>-4476.79</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>5.3</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>-1834.83</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f>SUM(E9:E13)</f>
         <v>-8113.31</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>5.79</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>-250.05</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f>SUM(H9:H13)</f>
         <v>-2493.42</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>16.59</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>26831</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <f>SUM(K9:K13)</f>
         <v>2840.25</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>23.46</v>
       </c>
     </row>
     <row r="14" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>44991</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>-422.3</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
         <v>5.31</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>-49271</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
         <v>5.22</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>-447.91</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6">
         <v>16.81</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>-14129</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6">
         <v>23.26</v>
       </c>
     </row>
     <row r="15" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>44992</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>-2173.28</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
         <v>5.19</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>-4258.29</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
         <v>5.1</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>-304.77</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6">
         <v>16.65</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>-6275.68</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7">
+      <c r="L15" s="6"/>
+      <c r="M15" s="6">
         <v>23.76</v>
       </c>
     </row>
     <row r="16" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>44993</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>-356.32</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
         <v>5.2</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>-1295.51</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
         <v>5.14</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>-178.56</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6">
         <v>16.54</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>27301</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7">
+      <c r="L16" s="6"/>
+      <c r="M16" s="6">
         <v>25.6</v>
       </c>
     </row>
     <row r="17" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>44994</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>-2156.71</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
         <v>5.14</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>-6103.39</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
         <v>5.05</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>-36.85</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6">
         <v>16.73</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>-16110</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7">
+      <c r="L17" s="6"/>
+      <c r="M17" s="6">
         <v>25.43</v>
       </c>
     </row>
     <row r="18" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>44995</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>-707.31</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>SUM(B14:B18)</f>
         <v>-5815.92</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>5.11</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>-1194.41</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f>SUM(E14:E18)</f>
         <v>-62122.6</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>5.04</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>-72.29</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <f>SUM(H14:H18)</f>
         <v>-1040.38</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>16.45</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>-18308</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <f>SUM(K14:K18)</f>
         <v>-27521.68</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>24.74</v>
       </c>
     </row>
     <row r="19" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>44998</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>-385.02</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
         <v>5.09</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>-1985.51</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
         <v>5.11</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>94.64</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6">
         <v>16.31</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <v>-627.47</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7">
+      <c r="L19" s="6"/>
+      <c r="M19" s="6">
         <v>25.26</v>
       </c>
     </row>
     <row r="20" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>44999</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>-2430.31</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
         <v>5.03</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>-4119.1</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
         <v>5.02</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>-1427.06</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6">
         <v>15.8</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <v>-13160</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7">
+      <c r="L20" s="6"/>
+      <c r="M20" s="6">
         <v>25.49</v>
       </c>
     </row>
     <row r="21" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>45000</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>-289.72</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
         <v>5.07</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>-6235.17</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
         <v>4.92</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>-300.49</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6">
         <v>16.24</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>-19242</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7">
+      <c r="L21" s="6"/>
+      <c r="M21" s="6">
         <v>24.8</v>
       </c>
     </row>
     <row r="22" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>45001</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>-1837.79</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
         <v>4.96</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>6754.32</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
         <v>4.97</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>839.95</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6">
         <v>16.82</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <v>-32106</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7">
+      <c r="L22" s="6"/>
+      <c r="M22" s="6">
         <v>23.39</v>
       </c>
     </row>
     <row r="23" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>45002</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>436.58</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>SUM(B19:B23)</f>
         <v>-4506.26</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>4.95</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>-984.37</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <f>SUM(E19:E23)</f>
         <v>-6569.83</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>4.96</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>96.17</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f>SUM(H19:H23)</f>
         <v>-696.79</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>16.77</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <v>-12652</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <f>SUM(K19:K23)</f>
         <v>-77787.47</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <v>23.11</v>
       </c>
     </row>
     <row r="24" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>45005</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>367.2</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6">
         <v>5</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>-8785.48</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
         <v>4.84</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>-147.25</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6">
         <v>16.56</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <v>-18523</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7">
+      <c r="L24" s="6"/>
+      <c r="M24" s="6">
         <v>22.34</v>
       </c>
     </row>
     <row r="25" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>45006</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>-652.06</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6">
         <v>5</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>7227.91</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
         <v>5.03</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <v>-5.55</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6">
         <v>16.96</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <v>1466.33</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7">
+      <c r="L25" s="6"/>
+      <c r="M25" s="6">
         <v>23.38</v>
       </c>
     </row>
     <row r="26" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>45007</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="B26" s="6">
+        <v>400.18</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6">
+        <v>5.06</v>
+      </c>
+      <c r="E26" s="6">
+        <v>-4639.53</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
+        <v>5.03</v>
+      </c>
+      <c r="H26" s="6">
+        <v>70.54</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6">
+        <v>17.11</v>
+      </c>
+      <c r="K26" s="6">
+        <v>-11004</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6">
+        <v>23.21</v>
+      </c>
     </row>
     <row r="27" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>45008</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="B27" s="6">
+        <v>390.86</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6">
+        <v>-10345</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="H27" s="6">
+        <v>-637.94</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6">
+        <v>16.96</v>
+      </c>
+      <c r="K27" s="6">
+        <v>6656.5</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6">
+        <v>23.55</v>
+      </c>
     </row>
     <row r="28" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>45009</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6">
         <f>SUM(B24:B28)</f>
-        <v>-284.86</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7">
+        <v>506.18</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6">
         <f>SUM(E24:E28)</f>
-        <v>-1557.57</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7">
+        <v>-16542.1</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6">
         <f>SUM(H24:H28)</f>
-        <v>-152.8</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7">
+        <v>-720.2</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6">
         <f>SUM(K24:K28)</f>
-        <v>-17056.67</v>
-      </c>
-      <c r="M28" s="7"/>
+        <v>-21404.17</v>
+      </c>
+      <c r="M28" s="6"/>
     </row>
     <row r="29" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
     </row>
     <row r="30" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
     </row>
     <row r="31" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <f>SUM(B4:B18)</f>
         <v>-53330.25</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
         <f>SUM(E4:E18)</f>
         <v>-158023.76</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
         <f>SUM(H4:H18)</f>
         <v>791.27</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7">
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6">
         <f>SUM(K4:K18)</f>
         <v>-67675.29</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B1048576 E23:E28 H23:H28 K23:K28">
@@ -6086,8 +7420,8 @@
   <sheetPr/>
   <dimension ref="B2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="22.5" outlineLevelCol="2"/>
@@ -6098,38 +7432,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <f>'2023财年主力资金和股价'!B1</f>
         <v>晶科科技</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <f>'2023财年主力资金和股价'!E1</f>
         <v>中公教育</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="1" t="str">
         <f>'2023财年主力资金和股价'!H1</f>
         <v>宏柏新材</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="2" t="str">
+      <c r="B31" s="1" t="str">
         <f>'2023财年主力资金和股价'!K1</f>
         <v>中兵红箭</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6143,15 +7477,161 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="14.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="11.0909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="22.5" spans="2:3">
+      <c r="B2" s="1" t="str">
+        <f>'2023财年主力资金和股价'!B1</f>
+        <v>晶科科技</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" spans="2:3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" ht="22.5" spans="2:3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" ht="22.5" spans="2:3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" ht="22.5" spans="2:3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" ht="22.5" spans="2:3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" ht="22.5" spans="2:3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" ht="22.5" spans="2:3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" ht="22.5" spans="2:3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" ht="22.5" spans="2:3">
+      <c r="B11" s="1" t="str">
+        <f>'2023财年主力资金和股价'!E1</f>
+        <v>中公教育</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" spans="2:3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" ht="22.5" spans="2:3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" ht="22.5" spans="2:3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" ht="22.5" spans="2:3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" ht="22.5" spans="2:3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" ht="22.5" spans="2:3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" ht="22.5" spans="2:3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" ht="22.5" spans="2:3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" ht="22.5" spans="2:3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" ht="22.5" spans="2:3">
+      <c r="B21" s="1" t="str">
+        <f>'2023财年主力资金和股价'!H1</f>
+        <v>宏柏新材</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" spans="2:3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" ht="22.5" spans="2:3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" ht="22.5" spans="2:3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" ht="22.5" spans="2:3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" ht="22.5" spans="2:3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" ht="22.5" spans="2:3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" ht="22.5" spans="2:3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" ht="22.5" spans="2:3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" ht="22.5" spans="2:3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" ht="22.5" spans="2:3">
+      <c r="B31" s="1" t="str">
+        <f>'2023财年主力资金和股价'!K1</f>
+        <v>中兵红箭</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/炒股记录分析.xlsx
+++ b/炒股记录分析.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10850"/>
+    <workbookView windowWidth="17030" windowHeight="10850" tabRatio="823" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2023财年主力资金和股价" sheetId="1" r:id="rId1"/>
-    <sheet name="股价走势图" sheetId="2" r:id="rId2"/>
-    <sheet name="股价及主力交易走势图" sheetId="3" r:id="rId3"/>
+    <sheet name="2023财年关注股票" sheetId="1" r:id="rId1"/>
+    <sheet name="晶科科技" sheetId="2" r:id="rId2"/>
+    <sheet name="中公教育" sheetId="5" r:id="rId3"/>
+    <sheet name="宏柏新材" sheetId="6" r:id="rId4"/>
+    <sheet name="中兵红箭" sheetId="7" r:id="rId5"/>
+    <sheet name="主力资金累计数量" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -169,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="1">
+    <comment ref="A34" authorId="1">
       <text>
         <r>
           <rPr>
@@ -196,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>日期</t>
   </si>
@@ -227,6 +230,10 @@
   <si>
     <t>走势图</t>
   </si>
+  <si>
+    <t xml:space="preserve">    股票主力累计金额
+日期</t>
+  </si>
 </sst>
 </file>
 
@@ -237,13 +244,18 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -255,16 +267,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="6"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -630,12 +632,66 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -741,46 +797,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,123 +851,135 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -990,6 +1061,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FE6D7E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -999,6 +1075,429 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>晶科科技</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"股价"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股价</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2023财年关注股票'!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>2月21日</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>2月22日</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>2月23日</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>2月24日</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>2月27日</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>2月28日</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月1日</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月2日</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月3日</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月6日</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月7日</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月8日</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月9日</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月10日</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月13日</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月14日</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月15日</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月16日</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月17日</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月20日</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月21日</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月22日</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月23日</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月24日</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月27日</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月28日</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月29日</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月30日</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月31日</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>日期</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023财年关注股票'!$D$5:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.06</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="1"/>
+        <c:axId val="556738796"/>
+        <c:axId val="15010496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="556738796"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="mongolianVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15010496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="15010496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556738796"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1024,7 +1523,820 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>主力资金累计数量!$A$5:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日";@</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45001</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45006</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45007</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45008</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45009</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45012</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45013</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45014</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45015</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>主力资金累计数量!$E$5:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>-42993.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-45526.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-48229.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-52655.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-66984.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-40153.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-54282.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-60558.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-33257.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-49367.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-67675.29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-68302.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-81462.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-100704.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-132810.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-145462.76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-163985.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-162519.43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-173523.43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-166866.93</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-179345.93</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-179345.93</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-179345.93</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-179345.93</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-179345.93</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-179345.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="1"/>
+        <c:axId val="294637301"/>
+        <c:axId val="623802428"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="294637301"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623802428"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623802428"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-20000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294637301"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>主力资金累计数量!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日";@</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44980</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45001</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45006</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45007</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45008</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45009</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45012</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45013</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45014</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45015</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>主力资金累计数量!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-34023.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-37973.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-41063.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-43037.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-45287.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-45820.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-45646.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-47668.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-47514.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-47936.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-50109.91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-50466.23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-52622.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-53330.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-53715.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-56145.58</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-56435.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-58273.09</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-57836.51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-57469.31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-58121.37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-57721.19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-57330.33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-57505.16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-57505.16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-57505.16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-57505.16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-57505.16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-57505.16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-57505.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="1"/>
+        <c:axId val="294637301"/>
+        <c:axId val="623802428"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="294637301"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623802428"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623802428"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-20000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294637301"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"股价走势图"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股价走势图</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1038,9 +2350,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2023财年主力资金和股价'!$A$5:$A$29</c:f>
+              <c:f>'2023财年关注股票'!$A$5:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>2月21日</c:v>
                 </c:pt>
@@ -1114,6 +2426,21 @@
                   <c:v>3月24日</c:v>
                 </c:pt>
                 <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月27日</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月28日</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月29日</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月30日</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月31日</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>日期</c:v>
                 </c:pt>
               </c:strCache>
@@ -1121,10 +2448,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$D$5:$D$29</c:f>
+              <c:f>'2023财年关注股票'!$D$5:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>5.43</c:v>
                 </c:pt>
@@ -1193,6 +2520,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1324,6 +2654,39 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1360,7 +2723,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1383,6 +2746,454 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"主力资金累计金额"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>主力资金累计金额</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>主力资金累计数量!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日";@</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44980</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45001</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45006</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45007</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45008</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45009</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45012</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45013</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45014</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45015</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>主力资金累计数量!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-34023.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-37973.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-41063.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-43037.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-45287.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-45820.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-45646.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-47668.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-47514.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-47936.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-50109.91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-50466.23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-52622.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-53330.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-53715.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-56145.58</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-56435.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-58273.09</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-57836.51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-57469.31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-58121.37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-57721.19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-57330.33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-57505.16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-57505.16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-57505.16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-57505.16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-57505.16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-57505.16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-57505.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="1"/>
+        <c:axId val="294637301"/>
+        <c:axId val="623802428"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="294637301"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623802428"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623802428"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-20000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294637301"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"股价走势图"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股价走势图</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1400,9 +3211,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2023财年主力资金和股价'!$A$5:$A$29</c:f>
+              <c:f>'2023财年关注股票'!$A$5:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>2月21日</c:v>
                 </c:pt>
@@ -1476,6 +3287,21 @@
                   <c:v>3月24日</c:v>
                 </c:pt>
                 <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月27日</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月28日</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月29日</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月30日</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月31日</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>日期</c:v>
                 </c:pt>
               </c:strCache>
@@ -1483,10 +3309,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$G$5:$G$29</c:f>
+              <c:f>'2023财年关注股票'!$G$5:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>5.89</c:v>
                 </c:pt>
@@ -1555,6 +3381,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1687,6 +3516,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1721,7 +3581,432 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023财年关注股票'!$A$5:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日";@</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44980</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45001</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45006</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45007</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45008</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45009</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45012</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45013</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45014</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45015</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>主力资金累计数量!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-81202.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-85915.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-79568.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-87787.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-93826.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-92282.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-90884.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-94066.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-95901.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-145172.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-149430.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-150725.96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-156829.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-158023.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-160009.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-164128.37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-170363.54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-163609.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-164593.59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-173379.07</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-166151.16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-170790.69</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-181135.69</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-188640.65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-188640.65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-188640.65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-188640.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-188640.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-188640.65</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-188640.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="1"/>
+        <c:axId val="294637301"/>
+        <c:axId val="623802428"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="294637301"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623802428"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623802428"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294637301"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1771,9 +4056,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2023财年主力资金和股价'!$A$5:$A$29</c:f>
+              <c:f>'2023财年关注股票'!$A$5:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>2月21日</c:v>
                 </c:pt>
@@ -1847,6 +4132,21 @@
                   <c:v>3月24日</c:v>
                 </c:pt>
                 <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月27日</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月28日</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月29日</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月30日</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>3月31日</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>日期</c:v>
                 </c:pt>
               </c:strCache>
@@ -1854,10 +4154,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$J$5:$J$29</c:f>
+              <c:f>'2023财年关注股票'!$J$5:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>17.49</c:v>
                 </c:pt>
@@ -1926,6 +4226,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>16.96</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2091,7 +4394,439 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0424514200298954"/>
+          <c:y val="0.124144672531769"/>
+          <c:w val="0.937339312406577"/>
+          <c:h val="0.700762463343109"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>主力资金累计数量!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日";@</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44980</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45001</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45006</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45007</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45008</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45009</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45012</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45013</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45014</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45015</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>主力资金累计数量!$D$2:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>5619.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5367.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4218.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4325.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4055.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4093.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3445.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2081.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1831.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1383.74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1078.97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900.41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>863.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>791.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>885.91</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-541.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-841.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.69000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>94.4799999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-52.7700000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-58.3200000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-625.72</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1049.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1049.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1049.24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1049.24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1049.24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1049.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="1"/>
+        <c:axId val="294637301"/>
+        <c:axId val="623802428"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="294637301"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623802428"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623802428"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294637301"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2130,153 +4865,160 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'2023财年主力资金和股价'!$A$5:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
+            <c:numRef>
+              <c:f>'2023财年关注股票'!$A$8:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日";@</c:formatCode>
+                <c:ptCount val="26"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>2月21日</c:v>
+                  <c:v>44981</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>2月22日</c:v>
+                  <c:v>44984</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>2月23日</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>2月24日</c:v>
+                  <c:v>44986</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>2月27日</c:v>
+                  <c:v>44987</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>2月28日</c:v>
+                  <c:v>44988</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月1日</c:v>
+                  <c:v>44991</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月2日</c:v>
+                  <c:v>44992</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月3日</c:v>
+                  <c:v>44993</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月6日</c:v>
+                  <c:v>44994</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月7日</c:v>
+                  <c:v>44995</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月8日</c:v>
+                  <c:v>44998</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月9日</c:v>
+                  <c:v>44999</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月10日</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月13日</c:v>
+                  <c:v>45001</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月14日</c:v>
+                  <c:v>45002</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月15日</c:v>
+                  <c:v>45005</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月16日</c:v>
+                  <c:v>45006</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月17日</c:v>
+                  <c:v>45007</c:v>
                 </c:pt>
                 <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月20日</c:v>
+                  <c:v>45008</c:v>
                 </c:pt>
                 <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月21日</c:v>
+                  <c:v>45009</c:v>
                 </c:pt>
                 <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月22日</c:v>
+                  <c:v>45012</c:v>
                 </c:pt>
                 <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月23日</c:v>
+                  <c:v>45013</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>3月24日</c:v>
+                  <c:v>45014</c:v>
                 </c:pt>
                 <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>日期</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>45015</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$M$5:$M$29</c:f>
+              <c:f>'2023财年关注股票'!$M$8:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>22.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.68</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.49</c:v>
+                  <c:v>22.61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.7</c:v>
+                  <c:v>22.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.68</c:v>
+                  <c:v>23.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.61</c:v>
+                  <c:v>23.26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.27</c:v>
+                  <c:v>23.76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.46</c:v>
+                  <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.26</c:v>
+                  <c:v>25.43</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.76</c:v>
+                  <c:v>24.74</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.6</c:v>
+                  <c:v>25.26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.43</c:v>
+                  <c:v>25.49</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.74</c:v>
+                  <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.26</c:v>
+                  <c:v>23.39</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.49</c:v>
+                  <c:v>23.11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.8</c:v>
+                  <c:v>22.34</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.39</c:v>
+                  <c:v>23.38</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.11</c:v>
+                  <c:v>23.21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.34</c:v>
+                  <c:v>23.55</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.38</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23.21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.55</c:v>
+                  <c:v>23.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2320,7 +5062,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2341,7 +5083,6 @@
         <c:crossAx val="227311153"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
@@ -2442,697 +5183,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"主力资金"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>主力资金</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$A$5:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日";@</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44978</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44979</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44980</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44981</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44984</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44985</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44986</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44987</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44988</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44991</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44992</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44993</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44994</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44995</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44998</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44999</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45001</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45002</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45005</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45006</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45007</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45008</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$B$5:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>-1123.87</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3949.81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3089.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1974.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-532.89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>174.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2022.05</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>154.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-422.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2173.28</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-356.32</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2156.71</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-707.31</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-385.02</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2430.31</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-289.72</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1837.79</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>436.58</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>367.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-652.06</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>400.18</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>390.86</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="399566974"/>
-        <c:axId val="660397491"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"股价"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>股价</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$A$5:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日";@</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44978</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44979</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44980</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44981</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44984</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44985</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44986</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44987</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44988</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44991</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44992</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44993</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44994</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44995</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44998</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>44999</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45001</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45002</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45005</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45006</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45007</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45008</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>45009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2023财年主力资金和股价'!$D$5:$D$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>5.43</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.29</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.31</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.03</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.96</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.06</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="926952066"/>
-        <c:axId val="211162454"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="399566974"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="660397491"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="660397491"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="399566974"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:dateAx>
-        <c:axId val="926952066"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="211162454"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="211162454"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="926952066"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.427457201401282"/>
-          <c:y val="0.888968824940048"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3332,6 +5423,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3848,7 +6099,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4364,7 +6615,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4880,7 +7131,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5396,7 +7647,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5912,7 +8163,2652 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>997585</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="679450" y="10601325"/>
+        <a:ext cx="4574540" cy="2929890"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1003935</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="463550" y="13521690"/>
+        <a:ext cx="4796790" cy="2727325"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5947,24 +10843,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>672465</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>52705</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
+      <xdr:colOff>116840</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1993900" y="2863850"/>
-        <a:ext cx="10536555" cy="2707640"/>
+        <a:off x="1974215" y="2508250"/>
+        <a:ext cx="10620375" cy="3248025"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5974,31 +10870,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>2540</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>261620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2000250" y="5740400"/>
-        <a:ext cx="10500360" cy="2834640"/>
+        <a:off x="1219200" y="355600"/>
+        <a:ext cx="10624820" cy="2910205"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6006,29 +10907,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>697230</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2000250" y="8858250"/>
-        <a:ext cx="10476230" cy="4133850"/>
+        <a:off x="1219200" y="3022600"/>
+        <a:ext cx="10620375" cy="3248025"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6037,33 +10938,128 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>93980</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>248285</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257810</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2489200" y="190500"/>
-        <a:ext cx="10565130" cy="2521585"/>
+        <a:off x="1219200" y="177800"/>
+        <a:ext cx="10621010" cy="2936240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1219200" y="3022600"/>
+        <a:ext cx="10620375" cy="3248025"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1219200" y="177800"/>
+        <a:ext cx="10622280" cy="4222115"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1111250" y="4273550"/>
+        <a:ext cx="10728325" cy="3266440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6330,17 +11326,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.4636363636364" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.4636363636364" style="8" customWidth="1"/>
     <col min="2" max="2" width="12.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="18.0090909090909" customWidth="1"/>
     <col min="4" max="4" width="6.19090909090909" customWidth="1"/>
@@ -6356,996 +11352,1082 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" ht="45.5" customHeight="1" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A3" s="5">
+      <c r="A3" s="11">
         <v>44958</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A4" s="5">
+      <c r="A4" s="11">
         <v>44977</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="12">
         <v>-32900</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
         <v>-81800</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12">
         <v>5584.93</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A5" s="5">
+      <c r="A5" s="11">
         <v>44978</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="12">
         <v>-1123.87</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
         <v>5.43</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="12">
         <v>597.54</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
         <v>5.89</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="12">
         <v>34.98</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12">
         <v>17.49</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A6" s="5">
+      <c r="A6" s="11">
         <v>44979</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="12">
         <v>-3949.81</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12">
         <v>5.38</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="12">
         <v>-4712.58</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12">
         <v>5.79</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="12">
         <v>-252.02</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12">
         <v>17.28</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A7" s="5">
+      <c r="A7" s="11">
         <v>44980</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="12">
         <v>-3089.6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12">
         <v>5.34</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="12">
         <v>6346.71</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12">
         <v>5.82</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="12">
         <v>-1149.65</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12">
         <v>17.11</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="12">
         <v>-50947</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A8" s="5">
+      <c r="A8" s="11">
         <v>44981</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="12">
         <v>-1974.26</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="12">
         <v>-11000</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="12">
         <v>5.29</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="12">
         <v>-8219.52</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="12">
         <v>-7000</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="12">
         <v>5.7</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="12">
         <v>106.83</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="12">
         <v>-1259</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="12">
         <v>17.22</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="12">
         <v>7953.14</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="12">
         <v>7953</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="12">
         <v>22.49</v>
       </c>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A9" s="5">
+      <c r="A9" s="11">
         <v>44984</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="12">
         <v>-2250</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12">
         <v>5.34</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="12">
         <v>-6038.52</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
         <v>5.58</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="12">
         <v>-269.84</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12">
         <v>17.18</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="12">
         <v>-2532.32</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12">
         <v>22.7</v>
       </c>
     </row>
     <row r="10" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A10" s="5">
+      <c r="A10" s="11">
         <v>44985</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="12">
         <v>-532.89</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
         <v>5.41</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="12">
         <v>1543.58</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
         <v>5.71</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="12">
         <v>38.19</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12">
         <v>17.17</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="12">
         <v>-2703.37</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6">
+      <c r="L10" s="12"/>
+      <c r="M10" s="12">
         <v>22.68</v>
       </c>
     </row>
     <row r="11" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A11" s="5">
+      <c r="A11" s="11">
         <v>44986</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="12">
         <v>174.13</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12">
         <v>5.37</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="12">
         <v>1398.49</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
         <v>5.73</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="12">
         <v>-647.88</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12">
         <v>17.12</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="12">
         <v>-4426.06</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6">
+      <c r="L11" s="12"/>
+      <c r="M11" s="12">
         <v>22.61</v>
       </c>
     </row>
     <row r="12" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A12" s="5">
+      <c r="A12" s="11">
         <v>44987</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="12">
         <v>-2022.05</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12">
         <v>5.27</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="12">
         <v>-3182.03</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
         <v>5.7</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="12">
         <v>-1363.84</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6">
+      <c r="I12" s="12"/>
+      <c r="J12" s="12">
         <v>16.64</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="12">
         <v>-14329</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12">
         <v>22.27</v>
       </c>
     </row>
     <row r="13" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A13" s="5">
+      <c r="A13" s="11">
         <v>44988</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="12">
         <v>154.02</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="12">
         <f>SUM(B9:B13)</f>
         <v>-4476.79</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="12">
         <v>5.3</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="12">
         <v>-1834.83</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="12">
         <f>SUM(E9:E13)</f>
         <v>-8113.31</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="12">
         <v>5.79</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="12">
         <v>-250.05</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="12">
         <f>SUM(H9:H13)</f>
         <v>-2493.42</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="12">
         <v>16.59</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="12">
         <v>26831</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="12">
         <f>SUM(K9:K13)</f>
         <v>2840.25</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="12">
         <v>23.46</v>
       </c>
     </row>
     <row r="14" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A14" s="5">
+      <c r="A14" s="11">
         <v>44991</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="12">
         <v>-422.3</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12">
         <v>5.31</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="12">
         <v>-49271</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
         <v>5.22</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="12">
         <v>-447.91</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6">
+      <c r="I14" s="12"/>
+      <c r="J14" s="12">
         <v>16.81</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="12">
         <v>-14129</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6">
+      <c r="L14" s="12"/>
+      <c r="M14" s="12">
         <v>23.26</v>
       </c>
     </row>
     <row r="15" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A15" s="5">
+      <c r="A15" s="11">
         <v>44992</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="12">
         <v>-2173.28</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12">
         <v>5.19</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="12">
         <v>-4258.29</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
         <v>5.1</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="12">
         <v>-304.77</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12">
         <v>16.65</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="12">
         <v>-6275.68</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6">
+      <c r="L15" s="12"/>
+      <c r="M15" s="12">
         <v>23.76</v>
       </c>
     </row>
     <row r="16" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A16" s="5">
+      <c r="A16" s="11">
         <v>44993</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="12">
         <v>-356.32</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12">
         <v>5.2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="12">
         <v>-1295.51</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12">
         <v>5.14</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="12">
         <v>-178.56</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6">
+      <c r="I16" s="12"/>
+      <c r="J16" s="12">
         <v>16.54</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="12">
         <v>27301</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6">
+      <c r="L16" s="12"/>
+      <c r="M16" s="12">
         <v>25.6</v>
       </c>
     </row>
     <row r="17" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A17" s="5">
+      <c r="A17" s="11">
         <v>44994</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="12">
         <v>-2156.71</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12">
         <v>5.14</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="12">
         <v>-6103.39</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
         <v>5.05</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="12">
         <v>-36.85</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6">
+      <c r="I17" s="12"/>
+      <c r="J17" s="12">
         <v>16.73</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="12">
         <v>-16110</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12">
         <v>25.43</v>
       </c>
     </row>
     <row r="18" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A18" s="5">
+      <c r="A18" s="11">
         <v>44995</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="12">
         <v>-707.31</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="12">
         <f>SUM(B14:B18)</f>
         <v>-5815.92</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="12">
         <v>5.11</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="12">
         <v>-1194.41</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="12">
         <f>SUM(E14:E18)</f>
         <v>-62122.6</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="12">
         <v>5.04</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="12">
         <v>-72.29</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="12">
         <f>SUM(H14:H18)</f>
         <v>-1040.38</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="12">
         <v>16.45</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="12">
         <v>-18308</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="12">
         <f>SUM(K14:K18)</f>
         <v>-27521.68</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="12">
         <v>24.74</v>
       </c>
     </row>
     <row r="19" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A19" s="5">
+      <c r="A19" s="11">
         <v>44998</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="12">
         <v>-385.02</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12">
         <v>5.09</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="12">
         <v>-1985.51</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12">
         <v>5.11</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="12">
         <v>94.64</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6">
+      <c r="I19" s="12"/>
+      <c r="J19" s="12">
         <v>16.31</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="12">
         <v>-627.47</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6">
+      <c r="L19" s="12"/>
+      <c r="M19" s="12">
         <v>25.26</v>
       </c>
     </row>
     <row r="20" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A20" s="5">
+      <c r="A20" s="11">
         <v>44999</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="12">
         <v>-2430.31</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12">
         <v>5.03</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="12">
         <v>-4119.1</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12">
         <v>5.02</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="12">
         <v>-1427.06</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6">
+      <c r="I20" s="12"/>
+      <c r="J20" s="12">
         <v>15.8</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="12">
         <v>-13160</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12">
         <v>25.49</v>
       </c>
     </row>
     <row r="21" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A21" s="5">
+      <c r="A21" s="11">
         <v>45000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="12">
         <v>-289.72</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12">
         <v>5.07</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="12">
         <v>-6235.17</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12">
         <v>4.92</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="12">
         <v>-300.49</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6">
+      <c r="I21" s="12"/>
+      <c r="J21" s="12">
         <v>16.24</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="12">
         <v>-19242</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12">
         <v>24.8</v>
       </c>
     </row>
     <row r="22" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A22" s="5">
+      <c r="A22" s="11">
         <v>45001</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="12">
         <v>-1837.79</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12">
         <v>4.96</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="12">
         <v>6754.32</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12">
         <v>4.97</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="12">
         <v>839.95</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6">
+      <c r="I22" s="12"/>
+      <c r="J22" s="12">
         <v>16.82</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="12">
         <v>-32106</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12">
         <v>23.39</v>
       </c>
     </row>
     <row r="23" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A23" s="5">
+      <c r="A23" s="11">
         <v>45002</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="12">
         <v>436.58</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="12">
         <f>SUM(B19:B23)</f>
         <v>-4506.26</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="12">
         <v>4.95</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="12">
         <v>-984.37</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="12">
         <f>SUM(E19:E23)</f>
         <v>-6569.83</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="12">
         <v>4.96</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="12">
         <v>96.17</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="12">
         <f>SUM(H19:H23)</f>
         <v>-696.79</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="12">
         <v>16.77</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="12">
         <v>-12652</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="12">
         <f>SUM(K19:K23)</f>
         <v>-77787.47</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="12">
         <v>23.11</v>
       </c>
     </row>
     <row r="24" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A24" s="5">
+      <c r="A24" s="11">
         <v>45005</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="12">
         <v>367.2</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12">
         <v>5</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="12">
         <v>-8785.48</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12">
         <v>4.84</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="12">
         <v>-147.25</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6">
+      <c r="I24" s="12"/>
+      <c r="J24" s="12">
         <v>16.56</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="12">
         <v>-18523</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6">
+      <c r="L24" s="12"/>
+      <c r="M24" s="12">
         <v>22.34</v>
       </c>
     </row>
     <row r="25" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A25" s="5">
+      <c r="A25" s="11">
         <v>45006</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="12">
         <v>-652.06</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12">
         <v>5</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="12">
         <v>7227.91</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12">
         <v>5.03</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="12">
         <v>-5.55</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6">
+      <c r="I25" s="12"/>
+      <c r="J25" s="12">
         <v>16.96</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="12">
         <v>1466.33</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6">
+      <c r="L25" s="12"/>
+      <c r="M25" s="12">
         <v>23.38</v>
       </c>
     </row>
     <row r="26" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A26" s="5">
+      <c r="A26" s="11">
         <v>45007</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="12">
         <v>400.18</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12">
         <v>5.06</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="12">
         <v>-4639.53</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12">
         <v>5.03</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="12">
         <v>70.54</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6">
+      <c r="I26" s="12"/>
+      <c r="J26" s="12">
         <v>17.11</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="12">
         <v>-11004</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6">
+      <c r="L26" s="12"/>
+      <c r="M26" s="12">
         <v>23.21</v>
       </c>
     </row>
     <row r="27" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A27" s="5">
+      <c r="A27" s="11">
         <v>45008</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="12">
         <v>390.86</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12">
         <v>5</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="12">
         <v>-10345</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12">
         <v>4.96</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="12">
         <v>-637.94</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6">
+      <c r="I27" s="12"/>
+      <c r="J27" s="12">
         <v>16.96</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="12">
         <v>6656.5</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6">
+      <c r="L27" s="12"/>
+      <c r="M27" s="12">
         <v>23.55</v>
       </c>
     </row>
     <row r="28" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A28" s="5">
+      <c r="A28" s="11">
         <v>45009</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6">
+      <c r="B28" s="12">
+        <v>-174.83</v>
+      </c>
+      <c r="C28" s="12">
         <f>SUM(B24:B28)</f>
-        <v>506.18</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6">
+        <v>331.35</v>
+      </c>
+      <c r="D28" s="12">
+        <v>5.06</v>
+      </c>
+      <c r="E28" s="12">
+        <v>-7504.96</v>
+      </c>
+      <c r="F28" s="12">
         <f>SUM(E24:E28)</f>
-        <v>-16542.1</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6">
+        <v>-24047.06</v>
+      </c>
+      <c r="G28" s="12">
+        <v>4.99</v>
+      </c>
+      <c r="H28" s="12">
+        <v>-423.52</v>
+      </c>
+      <c r="I28" s="12">
         <f>SUM(H24:H28)</f>
-        <v>-720.2</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6">
+        <v>-1143.72</v>
+      </c>
+      <c r="J28" s="12">
+        <v>16.82</v>
+      </c>
+      <c r="K28" s="12">
+        <v>-12479</v>
+      </c>
+      <c r="L28" s="12">
         <f>SUM(K24:K28)</f>
-        <v>-21404.17</v>
-      </c>
-      <c r="M28" s="6"/>
+        <v>-33883.17</v>
+      </c>
+      <c r="M28" s="12">
+        <v>23.15</v>
+      </c>
     </row>
     <row r="29" ht="22.75" customHeight="1" spans="1:13">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="11">
+        <v>45012</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A30" s="11">
+        <v>45013</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A31" s="11">
+        <v>45014</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A32" s="11">
+        <v>45015</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A33" s="11">
+        <v>45016</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" ht="22.75" customHeight="1" spans="1:13">
+      <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
     </row>
-    <row r="30" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" ht="16.7" customHeight="1" spans="1:13">
-      <c r="A31" s="5" t="s">
+    <row r="35" ht="16.7" customHeight="1" spans="1:13">
+      <c r="A35" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B35" s="12">
         <f>SUM(B4:B18)</f>
         <v>-53330.25</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12">
         <f>SUM(E4:E18)</f>
         <v>-158023.76</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12">
         <f>SUM(H4:H18)</f>
         <v>791.27</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6">
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12">
         <f>SUM(K4:K18)</f>
         <v>-67675.29</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B1048576 E23:E28 H23:H28 K23:K28">
+  <conditionalFormatting sqref="B3:B1048576 E23:E33 H23:H33 K23:K33">
     <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7356,12 +12438,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C1048576 F23:F28 I23 L23:L28 I28">
+  <conditionalFormatting sqref="C3:C1048576 I23 F23:F33 I28:I33 L23:L33">
     <cfRule type="cellIs" dxfId="2" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E22 E29:E1048576">
+  <conditionalFormatting sqref="E3:E22 E34:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7372,12 +12454,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F22 F29:F1048576">
+  <conditionalFormatting sqref="F3:F22 F34:F1048576">
     <cfRule type="cellIs" dxfId="2" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H22 H29:H1048576">
+  <conditionalFormatting sqref="H3:H22 H34:H1048576">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7388,12 +12470,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I22 I24:I27 I29:I1048576">
+  <conditionalFormatting sqref="I3:I22 I24:I27 I34:I1048576">
     <cfRule type="cellIs" dxfId="2" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K22 K29:K1048576">
+  <conditionalFormatting sqref="K3:K22 K34:K1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7404,66 +12486,40 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L22 L29:L1048576">
+  <conditionalFormatting sqref="L3:L22 L34:L1048576">
     <cfRule type="cellIs" dxfId="2" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C31"/>
+  <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="22.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="22.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="6.18181818181818" customWidth="1"/>
-    <col min="2" max="2" width="12.4545454545455" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1"/>
+    <col min="2" max="2" width="12.4545454545455" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="1" t="str">
-        <f>'2023财年主力资金和股价'!B1</f>
+      <c r="B2" s="7" t="str">
+        <f>'2023财年关注股票'!B1</f>
         <v>晶科科技</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="1" t="str">
-        <f>'2023财年主力资金和股价'!E1</f>
-        <v>中公教育</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="1" t="str">
-        <f>'2023财年主力资金和股价'!H1</f>
-        <v>宏柏新材</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="1" t="str">
-        <f>'2023财年主力资金和股价'!K1</f>
-        <v>中兵红箭</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7477,161 +12533,771 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C31"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" outlineLevelCol="2"/>
-  <cols>
-    <col min="2" max="2" width="14.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="11.0909090909091" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="22.5" spans="2:3">
-      <c r="B2" s="1" t="str">
-        <f>'2023财年主力资金和股价'!B1</f>
-        <v>晶科科技</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="22.5" spans="2:3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" ht="22.5" spans="2:3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" ht="22.5" spans="2:3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" ht="22.5" spans="2:3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" ht="22.5" spans="2:3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" ht="22.5" spans="2:3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" ht="22.5" spans="2:3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" ht="22.5" spans="2:3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" ht="22.5" spans="2:3">
-      <c r="B11" s="1" t="str">
-        <f>'2023财年主力资金和股价'!E1</f>
-        <v>中公教育</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="22.5" spans="2:3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" ht="22.5" spans="2:3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" ht="22.5" spans="2:3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" ht="22.5" spans="2:3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" ht="22.5" spans="2:3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" ht="22.5" spans="2:3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" ht="22.5" spans="2:3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" ht="22.5" spans="2:3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" ht="22.5" spans="2:3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" ht="22.5" spans="2:3">
-      <c r="B21" s="1" t="str">
-        <f>'2023财年主力资金和股价'!H1</f>
-        <v>宏柏新材</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" ht="22.5" spans="2:3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" ht="22.5" spans="2:3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" ht="22.5" spans="2:3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" ht="22.5" spans="2:3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" ht="22.5" spans="2:3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" ht="22.5" spans="2:3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" ht="22.5" spans="2:3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" ht="22.5" spans="2:3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" ht="22.5" spans="2:3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" ht="22.5" spans="2:3">
-      <c r="B31" s="1" t="str">
-        <f>'2023财年主力资金和股价'!K1</f>
-        <v>中兵红箭</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="23.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="10.5454545454545" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.9090909090909"/>
+    <col min="4" max="4" width="11.8181818181818"/>
+    <col min="5" max="5" width="12.9090909090909"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <f>'2023财年关注股票'!B1</f>
+        <v>晶科科技</v>
+      </c>
+      <c r="C1" s="4" t="str">
+        <f>'2023财年关注股票'!E1</f>
+        <v>中公教育</v>
+      </c>
+      <c r="D1" s="4" t="str">
+        <f>'2023财年关注股票'!H1</f>
+        <v>宏柏新材</v>
+      </c>
+      <c r="E1" s="4" t="str">
+        <f>'2023财年关注股票'!K1</f>
+        <v>中兵红箭</v>
+      </c>
+    </row>
+    <row r="2" ht="14.5" spans="1:5">
+      <c r="A2" s="5">
+        <f>'2023财年关注股票'!A5</f>
+        <v>44978</v>
+      </c>
+      <c r="B2" s="3">
+        <f>SUM('2023财年关注股票'!B4:B5)</f>
+        <v>-34023.87</v>
+      </c>
+      <c r="C2" s="3">
+        <f>SUM('2023财年关注股票'!E4:E5)</f>
+        <v>-81202.46</v>
+      </c>
+      <c r="D2" s="6">
+        <f>SUM('2023财年关注股票'!H4:H5)</f>
+        <v>5619.91</v>
+      </c>
+      <c r="E2" s="3">
+        <f>SUM('2023财年关注股票'!K4:K5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.5" spans="1:5">
+      <c r="A3" s="5">
+        <f>'2023财年关注股票'!A6</f>
+        <v>44979</v>
+      </c>
+      <c r="B3" s="3">
+        <f>SUM('2023财年关注股票'!B4:B6)</f>
+        <v>-37973.68</v>
+      </c>
+      <c r="C3" s="3">
+        <f>SUM('2023财年关注股票'!E4:E6)</f>
+        <v>-85915.04</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUM('2023财年关注股票'!H4:H6)</f>
+        <v>5367.89</v>
+      </c>
+      <c r="E3" s="3">
+        <f>SUM('2023财年关注股票'!K4:K6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="14.5" spans="1:5">
+      <c r="A4" s="5">
+        <f>'2023财年关注股票'!A7</f>
+        <v>44980</v>
+      </c>
+      <c r="B4" s="3">
+        <f>SUM('2023财年关注股票'!B4:B7)</f>
+        <v>-41063.28</v>
+      </c>
+      <c r="C4" s="3">
+        <f>SUM('2023财年关注股票'!E4:E7)</f>
+        <v>-79568.33</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUM('2023财年关注股票'!H4:H7)</f>
+        <v>4218.24</v>
+      </c>
+      <c r="E4" s="3">
+        <f>SUM('2023财年关注股票'!K4:K7)</f>
+        <v>-50947</v>
+      </c>
+    </row>
+    <row r="5" ht="14.5" spans="1:5">
+      <c r="A5" s="5">
+        <f>'2023财年关注股票'!A8</f>
+        <v>44981</v>
+      </c>
+      <c r="B5" s="3">
+        <f>SUM('2023财年关注股票'!B4:B8)</f>
+        <v>-43037.54</v>
+      </c>
+      <c r="C5" s="3">
+        <f>SUM('2023财年关注股票'!E4:E8)</f>
+        <v>-87787.85</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUM('2023财年关注股票'!H4:H8)</f>
+        <v>4325.07</v>
+      </c>
+      <c r="E5" s="3">
+        <f>SUM('2023财年关注股票'!K4:K8)</f>
+        <v>-42993.86</v>
+      </c>
+    </row>
+    <row r="6" ht="14.5" spans="1:5">
+      <c r="A6" s="5">
+        <f>'2023财年关注股票'!A9</f>
+        <v>44984</v>
+      </c>
+      <c r="B6" s="3">
+        <f>SUM('2023财年关注股票'!B4:B9)</f>
+        <v>-45287.54</v>
+      </c>
+      <c r="C6" s="3">
+        <f>SUM('2023财年关注股票'!E4:E9)</f>
+        <v>-93826.37</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM('2023财年关注股票'!H4:H9)</f>
+        <v>4055.23</v>
+      </c>
+      <c r="E6" s="3">
+        <f>SUM('2023财年关注股票'!K4:K9)</f>
+        <v>-45526.18</v>
+      </c>
+    </row>
+    <row r="7" ht="14.5" spans="1:5">
+      <c r="A7" s="5">
+        <f>'2023财年关注股票'!A10</f>
+        <v>44985</v>
+      </c>
+      <c r="B7" s="3">
+        <f>SUM('2023财年关注股票'!B4:B10)</f>
+        <v>-45820.43</v>
+      </c>
+      <c r="C7" s="3">
+        <f>SUM('2023财年关注股票'!E4:E10)</f>
+        <v>-92282.79</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM('2023财年关注股票'!H4:H10)</f>
+        <v>4093.42</v>
+      </c>
+      <c r="E7" s="3">
+        <f>SUM('2023财年关注股票'!K4:K10)</f>
+        <v>-48229.55</v>
+      </c>
+    </row>
+    <row r="8" ht="14.5" spans="1:5">
+      <c r="A8" s="5">
+        <f>'2023财年关注股票'!A11</f>
+        <v>44986</v>
+      </c>
+      <c r="B8" s="3">
+        <f>SUM('2023财年关注股票'!B4:B11)</f>
+        <v>-45646.3</v>
+      </c>
+      <c r="C8" s="3">
+        <f>SUM('2023财年关注股票'!E4:E11)</f>
+        <v>-90884.3</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM('2023财年关注股票'!H4:H11)</f>
+        <v>3445.54</v>
+      </c>
+      <c r="E8" s="3">
+        <f>SUM('2023财年关注股票'!K4:K11)</f>
+        <v>-52655.61</v>
+      </c>
+    </row>
+    <row r="9" ht="14.5" spans="1:5">
+      <c r="A9" s="5">
+        <f>'2023财年关注股票'!A12</f>
+        <v>44987</v>
+      </c>
+      <c r="B9" s="3">
+        <f>SUM('2023财年关注股票'!B4:B12)</f>
+        <v>-47668.35</v>
+      </c>
+      <c r="C9" s="3">
+        <f>SUM('2023财年关注股票'!E4:E12)</f>
+        <v>-94066.33</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM('2023财年关注股票'!H4:H12)</f>
+        <v>2081.7</v>
+      </c>
+      <c r="E9" s="3">
+        <f>SUM('2023财年关注股票'!K4:K12)</f>
+        <v>-66984.61</v>
+      </c>
+    </row>
+    <row r="10" ht="14.5" spans="1:5">
+      <c r="A10" s="5">
+        <f>'2023财年关注股票'!A13</f>
+        <v>44988</v>
+      </c>
+      <c r="B10" s="3">
+        <f>SUM('2023财年关注股票'!B4:B13)</f>
+        <v>-47514.33</v>
+      </c>
+      <c r="C10" s="3">
+        <f>SUM('2023财年关注股票'!E4:E13)</f>
+        <v>-95901.16</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUM('2023财年关注股票'!H4:H13)</f>
+        <v>1831.65</v>
+      </c>
+      <c r="E10" s="3">
+        <f>SUM('2023财年关注股票'!K4:K13)</f>
+        <v>-40153.61</v>
+      </c>
+    </row>
+    <row r="11" ht="14.5" spans="1:5">
+      <c r="A11" s="5">
+        <f>'2023财年关注股票'!A14</f>
+        <v>44991</v>
+      </c>
+      <c r="B11" s="3">
+        <f>SUM('2023财年关注股票'!B4:B14)</f>
+        <v>-47936.63</v>
+      </c>
+      <c r="C11" s="3">
+        <f>SUM('2023财年关注股票'!E4:E14)</f>
+        <v>-145172.16</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM('2023财年关注股票'!H4:H14)</f>
+        <v>1383.74</v>
+      </c>
+      <c r="E11" s="3">
+        <f>SUM('2023财年关注股票'!K4:K14)</f>
+        <v>-54282.61</v>
+      </c>
+    </row>
+    <row r="12" ht="14.5" spans="1:5">
+      <c r="A12" s="5">
+        <f>'2023财年关注股票'!A15</f>
+        <v>44992</v>
+      </c>
+      <c r="B12" s="3">
+        <f>SUM('2023财年关注股票'!B4:B15)</f>
+        <v>-50109.91</v>
+      </c>
+      <c r="C12" s="3">
+        <f>SUM('2023财年关注股票'!E4:E15)</f>
+        <v>-149430.45</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUM('2023财年关注股票'!H4:H15)</f>
+        <v>1078.97</v>
+      </c>
+      <c r="E12" s="3">
+        <f>SUM('2023财年关注股票'!K4:K15)</f>
+        <v>-60558.29</v>
+      </c>
+    </row>
+    <row r="13" ht="14.5" spans="1:5">
+      <c r="A13" s="5">
+        <f>'2023财年关注股票'!A16</f>
+        <v>44993</v>
+      </c>
+      <c r="B13" s="3">
+        <f>SUM('2023财年关注股票'!B4:B16)</f>
+        <v>-50466.23</v>
+      </c>
+      <c r="C13" s="3">
+        <f>SUM('2023财年关注股票'!E4:E16)</f>
+        <v>-150725.96</v>
+      </c>
+      <c r="D13" s="4">
+        <f>SUM('2023财年关注股票'!H4:H16)</f>
+        <v>900.41</v>
+      </c>
+      <c r="E13" s="3">
+        <f>SUM('2023财年关注股票'!K4:K16)</f>
+        <v>-33257.29</v>
+      </c>
+    </row>
+    <row r="14" ht="14.5" spans="1:5">
+      <c r="A14" s="5">
+        <f>'2023财年关注股票'!A17</f>
+        <v>44994</v>
+      </c>
+      <c r="B14" s="3">
+        <f>SUM('2023财年关注股票'!B4:B17)</f>
+        <v>-52622.94</v>
+      </c>
+      <c r="C14" s="3">
+        <f>SUM('2023财年关注股票'!E4:E17)</f>
+        <v>-156829.35</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUM('2023财年关注股票'!H4:H17)</f>
+        <v>863.56</v>
+      </c>
+      <c r="E14" s="3">
+        <f>SUM('2023财年关注股票'!K4:K17)</f>
+        <v>-49367.29</v>
+      </c>
+    </row>
+    <row r="15" ht="14.5" spans="1:5">
+      <c r="A15" s="5">
+        <f>'2023财年关注股票'!A18</f>
+        <v>44995</v>
+      </c>
+      <c r="B15" s="3">
+        <f>SUM('2023财年关注股票'!B4:B18)</f>
+        <v>-53330.25</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM('2023财年关注股票'!E4:E18)</f>
+        <v>-158023.76</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUM('2023财年关注股票'!H4:H18)</f>
+        <v>791.27</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUM('2023财年关注股票'!K4:K18)</f>
+        <v>-67675.29</v>
+      </c>
+    </row>
+    <row r="16" ht="14.5" spans="1:5">
+      <c r="A16" s="5">
+        <f>'2023财年关注股票'!A19</f>
+        <v>44998</v>
+      </c>
+      <c r="B16" s="3">
+        <f>SUM('2023财年关注股票'!B4:B19)</f>
+        <v>-53715.27</v>
+      </c>
+      <c r="C16" s="3">
+        <f>SUM('2023财年关注股票'!E4:E19)</f>
+        <v>-160009.27</v>
+      </c>
+      <c r="D16" s="4">
+        <f>SUM('2023财年关注股票'!H4:H19)</f>
+        <v>885.91</v>
+      </c>
+      <c r="E16" s="3">
+        <f>SUM('2023财年关注股票'!K4:K19)</f>
+        <v>-68302.76</v>
+      </c>
+    </row>
+    <row r="17" ht="14.5" spans="1:5">
+      <c r="A17" s="5">
+        <f>'2023财年关注股票'!A20</f>
+        <v>44999</v>
+      </c>
+      <c r="B17" s="3">
+        <f>SUM('2023财年关注股票'!B4:B20)</f>
+        <v>-56145.58</v>
+      </c>
+      <c r="C17" s="3">
+        <f>SUM('2023财年关注股票'!E4:E20)</f>
+        <v>-164128.37</v>
+      </c>
+      <c r="D17" s="4">
+        <f>SUM('2023财年关注股票'!H4:H20)</f>
+        <v>-541.15</v>
+      </c>
+      <c r="E17" s="3">
+        <f>SUM('2023财年关注股票'!K4:K20)</f>
+        <v>-81462.76</v>
+      </c>
+    </row>
+    <row r="18" ht="14.5" spans="1:5">
+      <c r="A18" s="5">
+        <f>'2023财年关注股票'!A21</f>
+        <v>45000</v>
+      </c>
+      <c r="B18" s="3">
+        <f>SUM('2023财年关注股票'!B4:B21)</f>
+        <v>-56435.3</v>
+      </c>
+      <c r="C18" s="3">
+        <f>SUM('2023财年关注股票'!E4:E21)</f>
+        <v>-170363.54</v>
+      </c>
+      <c r="D18" s="4">
+        <f>SUM('2023财年关注股票'!H4:H21)</f>
+        <v>-841.64</v>
+      </c>
+      <c r="E18" s="3">
+        <f>SUM('2023财年关注股票'!K4:K21)</f>
+        <v>-100704.76</v>
+      </c>
+    </row>
+    <row r="19" ht="14.5" spans="1:5">
+      <c r="A19" s="5">
+        <f>'2023财年关注股票'!A22</f>
+        <v>45001</v>
+      </c>
+      <c r="B19" s="3">
+        <f>SUM('2023财年关注股票'!B4:B22)</f>
+        <v>-58273.09</v>
+      </c>
+      <c r="C19" s="3">
+        <f>SUM('2023财年关注股票'!E4:E22)</f>
+        <v>-163609.22</v>
+      </c>
+      <c r="D19" s="4">
+        <f>SUM('2023财年关注股票'!H4:H22)</f>
+        <v>-1.69000000000005</v>
+      </c>
+      <c r="E19" s="3">
+        <f>SUM('2023财年关注股票'!K4:K22)</f>
+        <v>-132810.76</v>
+      </c>
+    </row>
+    <row r="20" ht="14.5" spans="1:5">
+      <c r="A20" s="5">
+        <f>'2023财年关注股票'!A23</f>
+        <v>45002</v>
+      </c>
+      <c r="B20" s="3">
+        <f>SUM('2023财年关注股票'!B4:B23)</f>
+        <v>-57836.51</v>
+      </c>
+      <c r="C20" s="3">
+        <f>SUM('2023财年关注股票'!E4:E23)</f>
+        <v>-164593.59</v>
+      </c>
+      <c r="D20" s="4">
+        <f>SUM('2023财年关注股票'!H4:H23)</f>
+        <v>94.4799999999999</v>
+      </c>
+      <c r="E20" s="3">
+        <f>SUM('2023财年关注股票'!K4:K23)</f>
+        <v>-145462.76</v>
+      </c>
+    </row>
+    <row r="21" ht="14.5" spans="1:5">
+      <c r="A21" s="5">
+        <f>'2023财年关注股票'!A24</f>
+        <v>45005</v>
+      </c>
+      <c r="B21" s="3">
+        <f>SUM('2023财年关注股票'!B4:B24)</f>
+        <v>-57469.31</v>
+      </c>
+      <c r="C21" s="3">
+        <f>SUM('2023财年关注股票'!E4:E24)</f>
+        <v>-173379.07</v>
+      </c>
+      <c r="D21" s="4">
+        <f>SUM('2023财年关注股票'!H4:H24)</f>
+        <v>-52.7700000000001</v>
+      </c>
+      <c r="E21" s="3">
+        <f>SUM('2023财年关注股票'!K4:K24)</f>
+        <v>-163985.76</v>
+      </c>
+    </row>
+    <row r="22" ht="14.5" spans="1:5">
+      <c r="A22" s="5">
+        <f>'2023财年关注股票'!A25</f>
+        <v>45006</v>
+      </c>
+      <c r="B22" s="3">
+        <f>SUM('2023财年关注股票'!B4:B25)</f>
+        <v>-58121.37</v>
+      </c>
+      <c r="C22" s="3">
+        <f>SUM('2023财年关注股票'!E4:E25)</f>
+        <v>-166151.16</v>
+      </c>
+      <c r="D22" s="4">
+        <f>SUM('2023财年关注股票'!H4:H25)</f>
+        <v>-58.3200000000001</v>
+      </c>
+      <c r="E22" s="3">
+        <f>SUM('2023财年关注股票'!K4:K25)</f>
+        <v>-162519.43</v>
+      </c>
+    </row>
+    <row r="23" ht="14.5" spans="1:5">
+      <c r="A23" s="5">
+        <f>'2023财年关注股票'!A26</f>
+        <v>45007</v>
+      </c>
+      <c r="B23" s="3">
+        <f>SUM('2023财年关注股票'!B4:B26)</f>
+        <v>-57721.19</v>
+      </c>
+      <c r="C23" s="3">
+        <f>SUM('2023财年关注股票'!E4:E26)</f>
+        <v>-170790.69</v>
+      </c>
+      <c r="D23" s="4">
+        <f>SUM('2023财年关注股票'!H4:H26)</f>
+        <v>12.22</v>
+      </c>
+      <c r="E23" s="3">
+        <f>SUM('2023财年关注股票'!K4:K26)</f>
+        <v>-173523.43</v>
+      </c>
+    </row>
+    <row r="24" ht="14.5" spans="1:5">
+      <c r="A24" s="5">
+        <f>'2023财年关注股票'!A27</f>
+        <v>45008</v>
+      </c>
+      <c r="B24" s="3">
+        <f>SUM('2023财年关注股票'!B4:B27)</f>
+        <v>-57330.33</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM('2023财年关注股票'!E4:E27)</f>
+        <v>-181135.69</v>
+      </c>
+      <c r="D24" s="4">
+        <f>SUM('2023财年关注股票'!H4:H27)</f>
+        <v>-625.72</v>
+      </c>
+      <c r="E24" s="3">
+        <f>SUM('2023财年关注股票'!K4:K27)</f>
+        <v>-166866.93</v>
+      </c>
+    </row>
+    <row r="25" ht="14.5" spans="1:5">
+      <c r="A25" s="5">
+        <f>'2023财年关注股票'!A28</f>
+        <v>45009</v>
+      </c>
+      <c r="B25" s="3">
+        <f>SUM('2023财年关注股票'!B4:B28)</f>
+        <v>-57505.16</v>
+      </c>
+      <c r="C25" s="3">
+        <f>SUM('2023财年关注股票'!E4:E28)</f>
+        <v>-188640.65</v>
+      </c>
+      <c r="D25" s="4">
+        <f>SUM('2023财年关注股票'!H4:H28)</f>
+        <v>-1049.24</v>
+      </c>
+      <c r="E25" s="3">
+        <f>SUM('2023财年关注股票'!K4:K28)</f>
+        <v>-179345.93</v>
+      </c>
+    </row>
+    <row r="26" ht="14.5" spans="1:5">
+      <c r="A26" s="5">
+        <f>'2023财年关注股票'!A29</f>
+        <v>45012</v>
+      </c>
+      <c r="B26" s="3">
+        <f>SUM('2023财年关注股票'!B4:B29)</f>
+        <v>-57505.16</v>
+      </c>
+      <c r="C26" s="3">
+        <f>SUM('2023财年关注股票'!E4:E29)</f>
+        <v>-188640.65</v>
+      </c>
+      <c r="D26" s="4">
+        <f>SUM('2023财年关注股票'!H4:H29)</f>
+        <v>-1049.24</v>
+      </c>
+      <c r="E26" s="3">
+        <f>SUM('2023财年关注股票'!K4:K29)</f>
+        <v>-179345.93</v>
+      </c>
+    </row>
+    <row r="27" ht="14.5" spans="1:5">
+      <c r="A27" s="5">
+        <f>'2023财年关注股票'!A30</f>
+        <v>45013</v>
+      </c>
+      <c r="B27" s="3">
+        <f>SUM('2023财年关注股票'!B4:B30)</f>
+        <v>-57505.16</v>
+      </c>
+      <c r="C27" s="3">
+        <f>SUM('2023财年关注股票'!E4:E30)</f>
+        <v>-188640.65</v>
+      </c>
+      <c r="D27" s="4">
+        <f>SUM('2023财年关注股票'!H4:H30)</f>
+        <v>-1049.24</v>
+      </c>
+      <c r="E27" s="3">
+        <f>SUM('2023财年关注股票'!K4:K30)</f>
+        <v>-179345.93</v>
+      </c>
+    </row>
+    <row r="28" ht="14.5" spans="1:5">
+      <c r="A28" s="5">
+        <f>'2023财年关注股票'!A31</f>
+        <v>45014</v>
+      </c>
+      <c r="B28" s="3">
+        <f>SUM('2023财年关注股票'!B4:B31)</f>
+        <v>-57505.16</v>
+      </c>
+      <c r="C28" s="3">
+        <f>SUM('2023财年关注股票'!E4:E31)</f>
+        <v>-188640.65</v>
+      </c>
+      <c r="D28" s="4">
+        <f>SUM('2023财年关注股票'!H4:H31)</f>
+        <v>-1049.24</v>
+      </c>
+      <c r="E28" s="3">
+        <f>SUM('2023财年关注股票'!K4:K31)</f>
+        <v>-179345.93</v>
+      </c>
+    </row>
+    <row r="29" ht="14.5" spans="1:5">
+      <c r="A29" s="5">
+        <f>'2023财年关注股票'!A32</f>
+        <v>45015</v>
+      </c>
+      <c r="B29" s="3">
+        <f>SUM('2023财年关注股票'!B4:B32)</f>
+        <v>-57505.16</v>
+      </c>
+      <c r="C29" s="3">
+        <f>SUM('2023财年关注股票'!E4:E32)</f>
+        <v>-188640.65</v>
+      </c>
+      <c r="D29" s="4">
+        <f>SUM('2023财年关注股票'!H4:H32)</f>
+        <v>-1049.24</v>
+      </c>
+      <c r="E29" s="3">
+        <f>SUM('2023财年关注股票'!K4:K32)</f>
+        <v>-179345.93</v>
+      </c>
+    </row>
+    <row r="30" ht="14.5" spans="1:5">
+      <c r="A30" s="5">
+        <f>'2023财年关注股票'!A33</f>
+        <v>45016</v>
+      </c>
+      <c r="B30" s="3">
+        <f>SUM('2023财年关注股票'!B4:B33)</f>
+        <v>-57505.16</v>
+      </c>
+      <c r="C30" s="3">
+        <f>SUM('2023财年关注股票'!E4:E33)</f>
+        <v>-188640.65</v>
+      </c>
+      <c r="D30" s="4">
+        <f>SUM('2023财年关注股票'!H4:H33)</f>
+        <v>-1049.24</v>
+      </c>
+      <c r="E30" s="3">
+        <f>SUM('2023财年关注股票'!K4:K33)</f>
+        <v>-179345.93</v>
+      </c>
+    </row>
+    <row r="31" ht="14.5" spans="1:5">
+      <c r="A31" s="5" t="str">
+        <f>'2023财年关注股票'!A34</f>
+        <v>日期</v>
+      </c>
+      <c r="B31" s="3">
+        <f>SUM('2023财年关注股票'!B4:B34)</f>
+        <v>-57505.16</v>
+      </c>
+      <c r="C31" s="3">
+        <f>SUM('2023财年关注股票'!E4:E34)</f>
+        <v>-188640.65</v>
+      </c>
+      <c r="D31" s="4">
+        <f>SUM('2023财年关注股票'!H4:H34)</f>
+        <v>-1049.24</v>
+      </c>
+      <c r="E31" s="3">
+        <f>SUM('2023财年关注股票'!K4:K34)</f>
+        <v>-179345.93</v>
+      </c>
+    </row>
+    <row r="32" ht="14.5" spans="1:5">
+      <c r="A32" s="5" t="str">
+        <f>'2023财年关注股票'!A35</f>
+        <v>汇总</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
+        <f>SUM('2023财年关注股票'!H4:H35)</f>
+        <v>-257.97</v>
+      </c>
+      <c r="E32" s="4">
+        <f>SUM('2023财年关注股票'!K4:K35)</f>
+        <v>-247021.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>